--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arath Reyes\Documents\GitHub\Bootstrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60128B5-EABD-46C6-A99D-0D6B2A9D14F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1167D5-0E67-4EC0-A9E8-AE85433CBF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,16 +492,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>44719</v>
+        <v>44706</v>
       </c>
       <c r="D2" s="2">
-        <v>44720</v>
+        <v>44707</v>
       </c>
       <c r="E2" s="2">
-        <v>44748</v>
+        <v>44735</v>
       </c>
       <c r="F2" s="2">
-        <v>44748</v>
+        <v>44735</v>
       </c>
       <c r="G2">
         <v>7.7777777777777779E-2</v>
@@ -521,16 +521,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>44747</v>
+        <v>44734</v>
       </c>
       <c r="D3" s="2">
-        <v>44748</v>
+        <v>44735</v>
       </c>
       <c r="E3" s="2">
-        <v>44776</v>
+        <v>44763</v>
       </c>
       <c r="F3" s="2">
-        <v>44776</v>
+        <v>44763</v>
       </c>
       <c r="G3">
         <v>7.7777777777777779E-2</v>
@@ -550,16 +550,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>44775</v>
+        <v>44762</v>
       </c>
       <c r="D4" s="2">
-        <v>44776</v>
+        <v>44763</v>
       </c>
       <c r="E4" s="2">
-        <v>44804</v>
+        <v>44791</v>
       </c>
       <c r="F4" s="2">
-        <v>44804</v>
+        <v>44791</v>
       </c>
       <c r="G4">
         <v>7.7777777777777779E-2</v>
@@ -579,16 +579,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>44803</v>
+        <v>44790</v>
       </c>
       <c r="D5" s="2">
-        <v>44804</v>
+        <v>44791</v>
       </c>
       <c r="E5" s="2">
-        <v>44832</v>
+        <v>44819</v>
       </c>
       <c r="F5" s="2">
-        <v>44832</v>
+        <v>44819</v>
       </c>
       <c r="G5">
         <v>7.7777777777777779E-2</v>
@@ -608,16 +608,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>44831</v>
+        <v>44818</v>
       </c>
       <c r="D6" s="2">
-        <v>44832</v>
+        <v>44819</v>
       </c>
       <c r="E6" s="2">
-        <v>44860</v>
+        <v>44847</v>
       </c>
       <c r="F6" s="2">
-        <v>44860</v>
+        <v>44847</v>
       </c>
       <c r="G6">
         <v>7.7777777777777779E-2</v>
@@ -637,16 +637,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>44859</v>
+        <v>44846</v>
       </c>
       <c r="D7" s="2">
-        <v>44860</v>
+        <v>44847</v>
       </c>
       <c r="E7" s="2">
-        <v>44888</v>
+        <v>44875</v>
       </c>
       <c r="F7" s="2">
-        <v>44888</v>
+        <v>44875</v>
       </c>
       <c r="G7">
         <v>7.7777777777777779E-2</v>
@@ -666,16 +666,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>44887</v>
+        <v>44874</v>
       </c>
       <c r="D8" s="2">
-        <v>44888</v>
+        <v>44875</v>
       </c>
       <c r="E8" s="2">
-        <v>44916</v>
+        <v>44903</v>
       </c>
       <c r="F8" s="2">
-        <v>44916</v>
+        <v>44903</v>
       </c>
       <c r="G8">
         <v>7.7777777777777779E-2</v>
@@ -695,16 +695,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>44915</v>
+        <v>44902</v>
       </c>
       <c r="D9" s="2">
-        <v>44916</v>
+        <v>44903</v>
       </c>
       <c r="E9" s="2">
-        <v>44944</v>
+        <v>44931</v>
       </c>
       <c r="F9" s="2">
-        <v>44944</v>
+        <v>44931</v>
       </c>
       <c r="G9">
         <v>7.7777777777777779E-2</v>
@@ -724,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>44943</v>
+        <v>44930</v>
       </c>
       <c r="D10" s="2">
-        <v>44944</v>
+        <v>44931</v>
       </c>
       <c r="E10" s="2">
-        <v>44972</v>
+        <v>44959</v>
       </c>
       <c r="F10" s="2">
-        <v>44972</v>
+        <v>44959</v>
       </c>
       <c r="G10">
         <v>7.7777777777777779E-2</v>
@@ -753,16 +753,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>44971</v>
+        <v>44958</v>
       </c>
       <c r="D11" s="2">
-        <v>44972</v>
+        <v>44959</v>
       </c>
       <c r="E11" s="2">
-        <v>45000</v>
+        <v>44987</v>
       </c>
       <c r="F11" s="2">
-        <v>45000</v>
+        <v>44987</v>
       </c>
       <c r="G11">
         <v>7.7777777777777779E-2</v>
@@ -782,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>44999</v>
+        <v>44986</v>
       </c>
       <c r="D12" s="2">
-        <v>45000</v>
+        <v>44987</v>
       </c>
       <c r="E12" s="2">
-        <v>45028</v>
+        <v>45015</v>
       </c>
       <c r="F12" s="2">
-        <v>45028</v>
+        <v>45015</v>
       </c>
       <c r="G12">
         <v>7.7777777777777779E-2</v>
@@ -811,16 +811,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>45027</v>
+        <v>45014</v>
       </c>
       <c r="D13" s="2">
-        <v>45028</v>
+        <v>45015</v>
       </c>
       <c r="E13" s="2">
-        <v>45056</v>
+        <v>45043</v>
       </c>
       <c r="F13" s="2">
-        <v>45056</v>
+        <v>45043</v>
       </c>
       <c r="G13">
         <v>7.7777777777777779E-2</v>
@@ -840,16 +840,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>45055</v>
+        <v>45042</v>
       </c>
       <c r="D14" s="2">
-        <v>45056</v>
+        <v>45043</v>
       </c>
       <c r="E14" s="2">
-        <v>45084</v>
+        <v>45071</v>
       </c>
       <c r="F14" s="2">
-        <v>45084</v>
+        <v>45071</v>
       </c>
       <c r="G14">
         <v>7.7777777777777779E-2</v>
@@ -869,16 +869,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>45083</v>
+        <v>45070</v>
       </c>
       <c r="D15" s="2">
-        <v>45084</v>
+        <v>45071</v>
       </c>
       <c r="E15" s="2">
-        <v>45112</v>
+        <v>45099</v>
       </c>
       <c r="F15" s="2">
-        <v>45112</v>
+        <v>45099</v>
       </c>
       <c r="G15">
         <v>7.7777777777777779E-2</v>
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>45111</v>
+        <v>45098</v>
       </c>
       <c r="D16" s="2">
-        <v>45112</v>
+        <v>45099</v>
       </c>
       <c r="E16" s="2">
-        <v>45140</v>
+        <v>45127</v>
       </c>
       <c r="F16" s="2">
-        <v>45140</v>
+        <v>45127</v>
       </c>
       <c r="G16">
         <v>7.7777777777777779E-2</v>
@@ -927,16 +927,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <v>45139</v>
+        <v>45126</v>
       </c>
       <c r="D17" s="2">
-        <v>45140</v>
+        <v>45127</v>
       </c>
       <c r="E17" s="2">
-        <v>45168</v>
+        <v>45155</v>
       </c>
       <c r="F17" s="2">
-        <v>45168</v>
+        <v>45155</v>
       </c>
       <c r="G17">
         <v>7.7777777777777779E-2</v>
@@ -956,16 +956,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>45167</v>
+        <v>45154</v>
       </c>
       <c r="D18" s="2">
-        <v>45168</v>
+        <v>45155</v>
       </c>
       <c r="E18" s="2">
-        <v>45196</v>
+        <v>45183</v>
       </c>
       <c r="F18" s="2">
-        <v>45196</v>
+        <v>45183</v>
       </c>
       <c r="G18">
         <v>7.7777777777777779E-2</v>
@@ -985,16 +985,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>45195</v>
+        <v>45182</v>
       </c>
       <c r="D19" s="2">
-        <v>45196</v>
+        <v>45183</v>
       </c>
       <c r="E19" s="2">
-        <v>45224</v>
+        <v>45211</v>
       </c>
       <c r="F19" s="2">
-        <v>45224</v>
+        <v>45211</v>
       </c>
       <c r="G19">
         <v>7.7777777777777779E-2</v>
@@ -1014,16 +1014,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>45223</v>
+        <v>45210</v>
       </c>
       <c r="D20" s="2">
-        <v>45224</v>
+        <v>45211</v>
       </c>
       <c r="E20" s="2">
-        <v>45252</v>
+        <v>45239</v>
       </c>
       <c r="F20" s="2">
-        <v>45252</v>
+        <v>45239</v>
       </c>
       <c r="G20">
         <v>7.7777777777777779E-2</v>
@@ -1043,16 +1043,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>45251</v>
+        <v>45238</v>
       </c>
       <c r="D21" s="2">
-        <v>45252</v>
+        <v>45239</v>
       </c>
       <c r="E21" s="2">
-        <v>45280</v>
+        <v>45267</v>
       </c>
       <c r="F21" s="2">
-        <v>45280</v>
+        <v>45267</v>
       </c>
       <c r="G21">
         <v>7.7777777777777779E-2</v>
@@ -1072,16 +1072,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>45279</v>
+        <v>45266</v>
       </c>
       <c r="D22" s="2">
-        <v>45280</v>
+        <v>45267</v>
       </c>
       <c r="E22" s="2">
-        <v>45308</v>
+        <v>45295</v>
       </c>
       <c r="F22" s="2">
-        <v>45308</v>
+        <v>45295</v>
       </c>
       <c r="G22">
         <v>7.7777777777777779E-2</v>
@@ -1101,16 +1101,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>45307</v>
+        <v>45294</v>
       </c>
       <c r="D23" s="2">
-        <v>45308</v>
+        <v>45295</v>
       </c>
       <c r="E23" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="F23" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="G23">
         <v>7.7777777777777779E-2</v>
@@ -1130,16 +1130,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>45335</v>
+        <v>45322</v>
       </c>
       <c r="D24" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="E24" s="2">
-        <v>45364</v>
+        <v>45351</v>
       </c>
       <c r="F24" s="2">
-        <v>45364</v>
+        <v>45351</v>
       </c>
       <c r="G24">
         <v>7.7777777777777779E-2</v>
@@ -1159,16 +1159,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>45363</v>
+        <v>45350</v>
       </c>
       <c r="D25" s="2">
-        <v>45364</v>
+        <v>45351</v>
       </c>
       <c r="E25" s="2">
-        <v>45392</v>
+        <v>45379</v>
       </c>
       <c r="F25" s="2">
-        <v>45392</v>
+        <v>45379</v>
       </c>
       <c r="G25">
         <v>7.7777777777777779E-2</v>
@@ -1188,16 +1188,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>45391</v>
+        <v>45378</v>
       </c>
       <c r="D26" s="2">
-        <v>45392</v>
+        <v>45379</v>
       </c>
       <c r="E26" s="2">
-        <v>45420</v>
+        <v>45407</v>
       </c>
       <c r="F26" s="2">
-        <v>45420</v>
+        <v>45407</v>
       </c>
       <c r="G26">
         <v>7.7777777777777779E-2</v>
@@ -1217,16 +1217,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>45419</v>
+        <v>45406</v>
       </c>
       <c r="D27" s="2">
-        <v>45420</v>
+        <v>45407</v>
       </c>
       <c r="E27" s="2">
-        <v>45448</v>
+        <v>45435</v>
       </c>
       <c r="F27" s="2">
-        <v>45448</v>
+        <v>45435</v>
       </c>
       <c r="G27">
         <v>7.7777777777777779E-2</v>
@@ -1246,16 +1246,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45447</v>
+        <v>45434</v>
       </c>
       <c r="D28" s="2">
-        <v>45448</v>
+        <v>45435</v>
       </c>
       <c r="E28" s="2">
-        <v>45476</v>
+        <v>45463</v>
       </c>
       <c r="F28" s="2">
-        <v>45476</v>
+        <v>45463</v>
       </c>
       <c r="G28">
         <v>7.7777777777777779E-2</v>
@@ -1275,16 +1275,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>45475</v>
+        <v>45462</v>
       </c>
       <c r="D29" s="2">
-        <v>45476</v>
+        <v>45463</v>
       </c>
       <c r="E29" s="2">
-        <v>45504</v>
+        <v>45491</v>
       </c>
       <c r="F29" s="2">
-        <v>45504</v>
+        <v>45491</v>
       </c>
       <c r="G29">
         <v>7.7777777777777779E-2</v>
@@ -1304,16 +1304,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>45503</v>
+        <v>45490</v>
       </c>
       <c r="D30" s="2">
-        <v>45504</v>
+        <v>45491</v>
       </c>
       <c r="E30" s="2">
-        <v>45532</v>
+        <v>45519</v>
       </c>
       <c r="F30" s="2">
-        <v>45532</v>
+        <v>45519</v>
       </c>
       <c r="G30">
         <v>7.7777777777777779E-2</v>
@@ -1333,16 +1333,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>45531</v>
+        <v>45518</v>
       </c>
       <c r="D31" s="2">
-        <v>45532</v>
+        <v>45519</v>
       </c>
       <c r="E31" s="2">
-        <v>45560</v>
+        <v>45547</v>
       </c>
       <c r="F31" s="2">
-        <v>45560</v>
+        <v>45547</v>
       </c>
       <c r="G31">
         <v>7.7777777777777779E-2</v>
@@ -1362,16 +1362,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>45559</v>
+        <v>45546</v>
       </c>
       <c r="D32" s="2">
-        <v>45560</v>
+        <v>45547</v>
       </c>
       <c r="E32" s="2">
-        <v>45588</v>
+        <v>45575</v>
       </c>
       <c r="F32" s="2">
-        <v>45588</v>
+        <v>45575</v>
       </c>
       <c r="G32">
         <v>7.7777777777777779E-2</v>
@@ -1391,16 +1391,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>45587</v>
+        <v>45574</v>
       </c>
       <c r="D33" s="2">
-        <v>45588</v>
+        <v>45575</v>
       </c>
       <c r="E33" s="2">
-        <v>45616</v>
+        <v>45603</v>
       </c>
       <c r="F33" s="2">
-        <v>45616</v>
+        <v>45603</v>
       </c>
       <c r="G33">
         <v>7.7777777777777779E-2</v>
@@ -1420,16 +1420,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>45615</v>
+        <v>45602</v>
       </c>
       <c r="D34" s="2">
-        <v>45616</v>
+        <v>45603</v>
       </c>
       <c r="E34" s="2">
-        <v>45644</v>
+        <v>45631</v>
       </c>
       <c r="F34" s="2">
-        <v>45644</v>
+        <v>45631</v>
       </c>
       <c r="G34">
         <v>7.7777777777777779E-2</v>
@@ -1449,16 +1449,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>45643</v>
+        <v>45630</v>
       </c>
       <c r="D35" s="2">
-        <v>45644</v>
+        <v>45631</v>
       </c>
       <c r="E35" s="2">
-        <v>45672</v>
+        <v>45659</v>
       </c>
       <c r="F35" s="2">
-        <v>45672</v>
+        <v>45659</v>
       </c>
       <c r="G35">
         <v>7.7777777777777779E-2</v>
@@ -1478,16 +1478,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>45671</v>
+        <v>45658</v>
       </c>
       <c r="D36" s="2">
-        <v>45672</v>
+        <v>45659</v>
       </c>
       <c r="E36" s="2">
-        <v>45700</v>
+        <v>45687</v>
       </c>
       <c r="F36" s="2">
-        <v>45700</v>
+        <v>45687</v>
       </c>
       <c r="G36">
         <v>7.7777777777777779E-2</v>
@@ -1507,16 +1507,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="2">
-        <v>45699</v>
+        <v>45686</v>
       </c>
       <c r="D37" s="2">
-        <v>45700</v>
+        <v>45687</v>
       </c>
       <c r="E37" s="2">
-        <v>45728</v>
+        <v>45715</v>
       </c>
       <c r="F37" s="2">
-        <v>45728</v>
+        <v>45715</v>
       </c>
       <c r="G37">
         <v>7.7777777777777779E-2</v>
@@ -1536,16 +1536,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="2">
-        <v>45727</v>
+        <v>45714</v>
       </c>
       <c r="D38" s="2">
-        <v>45728</v>
+        <v>45715</v>
       </c>
       <c r="E38" s="2">
-        <v>45756</v>
+        <v>45743</v>
       </c>
       <c r="F38" s="2">
-        <v>45756</v>
+        <v>45743</v>
       </c>
       <c r="G38">
         <v>7.7777777777777779E-2</v>
@@ -1565,16 +1565,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="2">
-        <v>45755</v>
+        <v>45742</v>
       </c>
       <c r="D39" s="2">
-        <v>45756</v>
+        <v>45743</v>
       </c>
       <c r="E39" s="2">
-        <v>45784</v>
+        <v>45771</v>
       </c>
       <c r="F39" s="2">
-        <v>45784</v>
+        <v>45771</v>
       </c>
       <c r="G39">
         <v>7.7777777777777779E-2</v>
@@ -1594,16 +1594,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="2">
-        <v>45783</v>
+        <v>45770</v>
       </c>
       <c r="D40" s="2">
-        <v>45784</v>
+        <v>45771</v>
       </c>
       <c r="E40" s="2">
-        <v>45812</v>
+        <v>45799</v>
       </c>
       <c r="F40" s="2">
-        <v>45812</v>
+        <v>45799</v>
       </c>
       <c r="G40">
         <v>7.7777777777777779E-2</v>
@@ -1623,16 +1623,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="2">
-        <v>45811</v>
+        <v>45798</v>
       </c>
       <c r="D41" s="2">
-        <v>45812</v>
+        <v>45799</v>
       </c>
       <c r="E41" s="2">
-        <v>45840</v>
+        <v>45827</v>
       </c>
       <c r="F41" s="2">
-        <v>45840</v>
+        <v>45827</v>
       </c>
       <c r="G41">
         <v>7.7777777777777779E-2</v>
@@ -1652,16 +1652,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="2">
-        <v>45839</v>
+        <v>45826</v>
       </c>
       <c r="D42" s="2">
-        <v>45840</v>
+        <v>45827</v>
       </c>
       <c r="E42" s="2">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="F42" s="2">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G42">
         <v>7.7777777777777779E-2</v>
@@ -1681,16 +1681,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="2">
-        <v>45867</v>
+        <v>45854</v>
       </c>
       <c r="D43" s="2">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="E43" s="2">
-        <v>45896</v>
+        <v>45883</v>
       </c>
       <c r="F43" s="2">
-        <v>45896</v>
+        <v>45883</v>
       </c>
       <c r="G43">
         <v>7.7777777777777779E-2</v>
@@ -1710,16 +1710,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="2">
-        <v>45895</v>
+        <v>45882</v>
       </c>
       <c r="D44" s="2">
-        <v>45896</v>
+        <v>45883</v>
       </c>
       <c r="E44" s="2">
-        <v>45924</v>
+        <v>45911</v>
       </c>
       <c r="F44" s="2">
-        <v>45924</v>
+        <v>45911</v>
       </c>
       <c r="G44">
         <v>7.7777777777777779E-2</v>
@@ -1739,16 +1739,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="2">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="D45" s="2">
-        <v>45924</v>
+        <v>45911</v>
       </c>
       <c r="E45" s="2">
-        <v>45952</v>
+        <v>45939</v>
       </c>
       <c r="F45" s="2">
-        <v>45952</v>
+        <v>45939</v>
       </c>
       <c r="G45">
         <v>7.7777777777777779E-2</v>
@@ -1768,16 +1768,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="2">
-        <v>45951</v>
+        <v>45938</v>
       </c>
       <c r="D46" s="2">
-        <v>45952</v>
+        <v>45939</v>
       </c>
       <c r="E46" s="2">
-        <v>45980</v>
+        <v>45967</v>
       </c>
       <c r="F46" s="2">
-        <v>45980</v>
+        <v>45967</v>
       </c>
       <c r="G46">
         <v>7.7777777777777779E-2</v>
@@ -1797,16 +1797,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="2">
-        <v>45979</v>
+        <v>45966</v>
       </c>
       <c r="D47" s="2">
-        <v>45980</v>
+        <v>45967</v>
       </c>
       <c r="E47" s="2">
-        <v>46008</v>
+        <v>45995</v>
       </c>
       <c r="F47" s="2">
-        <v>46008</v>
+        <v>45995</v>
       </c>
       <c r="G47">
         <v>7.7777777777777779E-2</v>
@@ -1826,16 +1826,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="2">
-        <v>46007</v>
+        <v>45994</v>
       </c>
       <c r="D48" s="2">
-        <v>46008</v>
+        <v>45995</v>
       </c>
       <c r="E48" s="2">
-        <v>46036</v>
+        <v>46023</v>
       </c>
       <c r="F48" s="2">
-        <v>46036</v>
+        <v>46023</v>
       </c>
       <c r="G48">
         <v>7.7777777777777779E-2</v>
@@ -1855,16 +1855,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="2">
-        <v>46035</v>
+        <v>46022</v>
       </c>
       <c r="D49" s="2">
-        <v>46036</v>
+        <v>46023</v>
       </c>
       <c r="E49" s="2">
-        <v>46064</v>
+        <v>46051</v>
       </c>
       <c r="F49" s="2">
-        <v>46064</v>
+        <v>46051</v>
       </c>
       <c r="G49">
         <v>7.7777777777777779E-2</v>
@@ -1884,16 +1884,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="2">
-        <v>46063</v>
+        <v>46050</v>
       </c>
       <c r="D50" s="2">
-        <v>46064</v>
+        <v>46051</v>
       </c>
       <c r="E50" s="2">
-        <v>46092</v>
+        <v>46079</v>
       </c>
       <c r="F50" s="2">
-        <v>46092</v>
+        <v>46079</v>
       </c>
       <c r="G50">
         <v>7.7777777777777779E-2</v>
@@ -1913,16 +1913,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="2">
-        <v>46091</v>
+        <v>46078</v>
       </c>
       <c r="D51" s="2">
-        <v>46092</v>
+        <v>46079</v>
       </c>
       <c r="E51" s="2">
-        <v>46120</v>
+        <v>46107</v>
       </c>
       <c r="F51" s="2">
-        <v>46120</v>
+        <v>46107</v>
       </c>
       <c r="G51">
         <v>7.7777777777777779E-2</v>
@@ -1942,16 +1942,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="2">
-        <v>46119</v>
+        <v>46106</v>
       </c>
       <c r="D52" s="2">
-        <v>46120</v>
+        <v>46107</v>
       </c>
       <c r="E52" s="2">
-        <v>46148</v>
+        <v>46135</v>
       </c>
       <c r="F52" s="2">
-        <v>46148</v>
+        <v>46135</v>
       </c>
       <c r="G52">
         <v>7.7777777777777779E-2</v>
@@ -1971,16 +1971,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="2">
-        <v>46147</v>
+        <v>46134</v>
       </c>
       <c r="D53" s="2">
-        <v>46148</v>
+        <v>46135</v>
       </c>
       <c r="E53" s="2">
-        <v>46176</v>
+        <v>46163</v>
       </c>
       <c r="F53" s="2">
-        <v>46176</v>
+        <v>46163</v>
       </c>
       <c r="G53">
         <v>7.7777777777777779E-2</v>
@@ -2000,16 +2000,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="2">
-        <v>46175</v>
+        <v>46162</v>
       </c>
       <c r="D54" s="2">
-        <v>46176</v>
+        <v>46163</v>
       </c>
       <c r="E54" s="2">
-        <v>46204</v>
+        <v>46191</v>
       </c>
       <c r="F54" s="2">
-        <v>46204</v>
+        <v>46191</v>
       </c>
       <c r="G54">
         <v>7.7777777777777779E-2</v>
@@ -2029,16 +2029,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="2">
-        <v>46203</v>
+        <v>46190</v>
       </c>
       <c r="D55" s="2">
-        <v>46204</v>
+        <v>46191</v>
       </c>
       <c r="E55" s="2">
-        <v>46232</v>
+        <v>46219</v>
       </c>
       <c r="F55" s="2">
-        <v>46232</v>
+        <v>46219</v>
       </c>
       <c r="G55">
         <v>7.7777777777777779E-2</v>
@@ -2058,16 +2058,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="2">
-        <v>46231</v>
+        <v>46218</v>
       </c>
       <c r="D56" s="2">
-        <v>46232</v>
+        <v>46219</v>
       </c>
       <c r="E56" s="2">
-        <v>46260</v>
+        <v>46247</v>
       </c>
       <c r="F56" s="2">
-        <v>46260</v>
+        <v>46247</v>
       </c>
       <c r="G56">
         <v>7.7777777777777779E-2</v>
@@ -2087,16 +2087,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="2">
-        <v>46259</v>
+        <v>46246</v>
       </c>
       <c r="D57" s="2">
-        <v>46260</v>
+        <v>46247</v>
       </c>
       <c r="E57" s="2">
-        <v>46288</v>
+        <v>46275</v>
       </c>
       <c r="F57" s="2">
-        <v>46288</v>
+        <v>46275</v>
       </c>
       <c r="G57">
         <v>7.7777777777777779E-2</v>
@@ -2116,16 +2116,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="2">
-        <v>46287</v>
+        <v>46274</v>
       </c>
       <c r="D58" s="2">
-        <v>46288</v>
+        <v>46275</v>
       </c>
       <c r="E58" s="2">
-        <v>46316</v>
+        <v>46303</v>
       </c>
       <c r="F58" s="2">
-        <v>46316</v>
+        <v>46303</v>
       </c>
       <c r="G58">
         <v>7.7777777777777779E-2</v>
@@ -2145,16 +2145,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="2">
-        <v>46315</v>
+        <v>46302</v>
       </c>
       <c r="D59" s="2">
-        <v>46316</v>
+        <v>46303</v>
       </c>
       <c r="E59" s="2">
-        <v>46344</v>
+        <v>46331</v>
       </c>
       <c r="F59" s="2">
-        <v>46344</v>
+        <v>46331</v>
       </c>
       <c r="G59">
         <v>7.7777777777777779E-2</v>
@@ -2174,16 +2174,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="2">
-        <v>46343</v>
+        <v>46330</v>
       </c>
       <c r="D60" s="2">
-        <v>46344</v>
+        <v>46331</v>
       </c>
       <c r="E60" s="2">
-        <v>46372</v>
+        <v>46359</v>
       </c>
       <c r="F60" s="2">
-        <v>46372</v>
+        <v>46359</v>
       </c>
       <c r="G60">
         <v>7.7777777777777779E-2</v>
@@ -2203,16 +2203,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="2">
-        <v>46371</v>
+        <v>46358</v>
       </c>
       <c r="D61" s="2">
-        <v>46372</v>
+        <v>46359</v>
       </c>
       <c r="E61" s="2">
-        <v>46400</v>
+        <v>46387</v>
       </c>
       <c r="F61" s="2">
-        <v>46400</v>
+        <v>46387</v>
       </c>
       <c r="G61">
         <v>7.7777777777777779E-2</v>
@@ -2232,16 +2232,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="2">
-        <v>46399</v>
+        <v>46386</v>
       </c>
       <c r="D62" s="2">
-        <v>46400</v>
+        <v>46387</v>
       </c>
       <c r="E62" s="2">
-        <v>46428</v>
+        <v>46415</v>
       </c>
       <c r="F62" s="2">
-        <v>46428</v>
+        <v>46415</v>
       </c>
       <c r="G62">
         <v>7.7777777777777779E-2</v>
@@ -2261,16 +2261,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="2">
-        <v>46427</v>
+        <v>46414</v>
       </c>
       <c r="D63" s="2">
-        <v>46428</v>
+        <v>46415</v>
       </c>
       <c r="E63" s="2">
-        <v>46456</v>
+        <v>46443</v>
       </c>
       <c r="F63" s="2">
-        <v>46456</v>
+        <v>46443</v>
       </c>
       <c r="G63">
         <v>7.7777777777777779E-2</v>
@@ -2290,16 +2290,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="2">
-        <v>46455</v>
+        <v>46442</v>
       </c>
       <c r="D64" s="2">
-        <v>46456</v>
+        <v>46443</v>
       </c>
       <c r="E64" s="2">
-        <v>46484</v>
+        <v>46471</v>
       </c>
       <c r="F64" s="2">
-        <v>46484</v>
+        <v>46471</v>
       </c>
       <c r="G64">
         <v>7.7777777777777779E-2</v>
@@ -2319,16 +2319,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="2">
-        <v>46483</v>
+        <v>46470</v>
       </c>
       <c r="D65" s="2">
-        <v>46484</v>
+        <v>46471</v>
       </c>
       <c r="E65" s="2">
-        <v>46512</v>
+        <v>46499</v>
       </c>
       <c r="F65" s="2">
-        <v>46512</v>
+        <v>46499</v>
       </c>
       <c r="G65">
         <v>7.7777777777777779E-2</v>
@@ -2348,16 +2348,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="2">
-        <v>46511</v>
+        <v>46498</v>
       </c>
       <c r="D66" s="2">
-        <v>46512</v>
+        <v>46499</v>
       </c>
       <c r="E66" s="2">
-        <v>46540</v>
+        <v>46527</v>
       </c>
       <c r="F66" s="2">
-        <v>46540</v>
+        <v>46527</v>
       </c>
       <c r="G66">
         <v>7.7777777777777779E-2</v>
@@ -2377,16 +2377,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="2">
-        <v>46539</v>
+        <v>46526</v>
       </c>
       <c r="D67" s="2">
-        <v>46540</v>
+        <v>46527</v>
       </c>
       <c r="E67" s="2">
-        <v>46568</v>
+        <v>46555</v>
       </c>
       <c r="F67" s="2">
-        <v>46568</v>
+        <v>46555</v>
       </c>
       <c r="G67">
         <v>7.7777777777777779E-2</v>
@@ -2406,16 +2406,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="2">
-        <v>46567</v>
+        <v>46554</v>
       </c>
       <c r="D68" s="2">
-        <v>46568</v>
+        <v>46555</v>
       </c>
       <c r="E68" s="2">
-        <v>46596</v>
+        <v>46583</v>
       </c>
       <c r="F68" s="2">
-        <v>46596</v>
+        <v>46583</v>
       </c>
       <c r="G68">
         <v>7.7777777777777779E-2</v>
@@ -2435,16 +2435,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="2">
-        <v>46595</v>
+        <v>46582</v>
       </c>
       <c r="D69" s="2">
-        <v>46596</v>
+        <v>46583</v>
       </c>
       <c r="E69" s="2">
-        <v>46624</v>
+        <v>46611</v>
       </c>
       <c r="F69" s="2">
-        <v>46624</v>
+        <v>46611</v>
       </c>
       <c r="G69">
         <v>7.7777777777777779E-2</v>
@@ -2464,16 +2464,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="2">
-        <v>46623</v>
+        <v>46610</v>
       </c>
       <c r="D70" s="2">
-        <v>46624</v>
+        <v>46611</v>
       </c>
       <c r="E70" s="2">
-        <v>46652</v>
+        <v>46639</v>
       </c>
       <c r="F70" s="2">
-        <v>46652</v>
+        <v>46639</v>
       </c>
       <c r="G70">
         <v>7.7777777777777779E-2</v>
@@ -2493,16 +2493,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="2">
-        <v>46651</v>
+        <v>46638</v>
       </c>
       <c r="D71" s="2">
-        <v>46652</v>
+        <v>46639</v>
       </c>
       <c r="E71" s="2">
-        <v>46680</v>
+        <v>46667</v>
       </c>
       <c r="F71" s="2">
-        <v>46680</v>
+        <v>46667</v>
       </c>
       <c r="G71">
         <v>7.7777777777777779E-2</v>
@@ -2522,16 +2522,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="2">
-        <v>46679</v>
+        <v>46666</v>
       </c>
       <c r="D72" s="2">
-        <v>46680</v>
+        <v>46667</v>
       </c>
       <c r="E72" s="2">
-        <v>46708</v>
+        <v>46695</v>
       </c>
       <c r="F72" s="2">
-        <v>46708</v>
+        <v>46695</v>
       </c>
       <c r="G72">
         <v>7.7777777777777779E-2</v>
@@ -2551,16 +2551,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="2">
-        <v>46707</v>
+        <v>46694</v>
       </c>
       <c r="D73" s="2">
-        <v>46708</v>
+        <v>46695</v>
       </c>
       <c r="E73" s="2">
-        <v>46736</v>
+        <v>46723</v>
       </c>
       <c r="F73" s="2">
-        <v>46736</v>
+        <v>46723</v>
       </c>
       <c r="G73">
         <v>7.7777777777777779E-2</v>
@@ -2580,16 +2580,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="2">
-        <v>46735</v>
+        <v>46722</v>
       </c>
       <c r="D74" s="2">
-        <v>46736</v>
+        <v>46723</v>
       </c>
       <c r="E74" s="2">
-        <v>46764</v>
+        <v>46751</v>
       </c>
       <c r="F74" s="2">
-        <v>46764</v>
+        <v>46751</v>
       </c>
       <c r="G74">
         <v>7.7777777777777779E-2</v>
@@ -2609,16 +2609,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="2">
-        <v>46763</v>
+        <v>46750</v>
       </c>
       <c r="D75" s="2">
-        <v>46764</v>
+        <v>46751</v>
       </c>
       <c r="E75" s="2">
-        <v>46792</v>
+        <v>46779</v>
       </c>
       <c r="F75" s="2">
-        <v>46792</v>
+        <v>46779</v>
       </c>
       <c r="G75">
         <v>7.7777777777777779E-2</v>
@@ -2638,16 +2638,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="2">
-        <v>46791</v>
+        <v>46778</v>
       </c>
       <c r="D76" s="2">
-        <v>46792</v>
+        <v>46779</v>
       </c>
       <c r="E76" s="2">
-        <v>46820</v>
+        <v>46807</v>
       </c>
       <c r="F76" s="2">
-        <v>46820</v>
+        <v>46807</v>
       </c>
       <c r="G76">
         <v>7.7777777777777779E-2</v>
@@ -2667,16 +2667,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="2">
-        <v>46819</v>
+        <v>46806</v>
       </c>
       <c r="D77" s="2">
-        <v>46820</v>
+        <v>46807</v>
       </c>
       <c r="E77" s="2">
-        <v>46848</v>
+        <v>46835</v>
       </c>
       <c r="F77" s="2">
-        <v>46848</v>
+        <v>46835</v>
       </c>
       <c r="G77">
         <v>7.7777777777777779E-2</v>
@@ -2696,16 +2696,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="2">
-        <v>46847</v>
+        <v>46834</v>
       </c>
       <c r="D78" s="2">
-        <v>46848</v>
+        <v>46835</v>
       </c>
       <c r="E78" s="2">
-        <v>46876</v>
+        <v>46863</v>
       </c>
       <c r="F78" s="2">
-        <v>46876</v>
+        <v>46863</v>
       </c>
       <c r="G78">
         <v>7.7777777777777779E-2</v>
@@ -2725,16 +2725,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="2">
-        <v>46875</v>
+        <v>46862</v>
       </c>
       <c r="D79" s="2">
-        <v>46876</v>
+        <v>46863</v>
       </c>
       <c r="E79" s="2">
-        <v>46904</v>
+        <v>46891</v>
       </c>
       <c r="F79" s="2">
-        <v>46904</v>
+        <v>46891</v>
       </c>
       <c r="G79">
         <v>7.7777777777777779E-2</v>
@@ -2754,16 +2754,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="2">
-        <v>46903</v>
+        <v>46890</v>
       </c>
       <c r="D80" s="2">
-        <v>46904</v>
+        <v>46891</v>
       </c>
       <c r="E80" s="2">
-        <v>46932</v>
+        <v>46919</v>
       </c>
       <c r="F80" s="2">
-        <v>46932</v>
+        <v>46919</v>
       </c>
       <c r="G80">
         <v>7.7777777777777779E-2</v>
@@ -2783,16 +2783,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="2">
-        <v>46931</v>
+        <v>46918</v>
       </c>
       <c r="D81" s="2">
-        <v>46932</v>
+        <v>46919</v>
       </c>
       <c r="E81" s="2">
-        <v>46960</v>
+        <v>46947</v>
       </c>
       <c r="F81" s="2">
-        <v>46960</v>
+        <v>46947</v>
       </c>
       <c r="G81">
         <v>7.7777777777777779E-2</v>
@@ -2812,16 +2812,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="2">
-        <v>46959</v>
+        <v>46946</v>
       </c>
       <c r="D82" s="2">
-        <v>46960</v>
+        <v>46947</v>
       </c>
       <c r="E82" s="2">
-        <v>46988</v>
+        <v>46975</v>
       </c>
       <c r="F82" s="2">
-        <v>46988</v>
+        <v>46975</v>
       </c>
       <c r="G82">
         <v>7.7777777777777779E-2</v>
@@ -2841,16 +2841,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="2">
-        <v>46987</v>
+        <v>46974</v>
       </c>
       <c r="D83" s="2">
-        <v>46988</v>
+        <v>46975</v>
       </c>
       <c r="E83" s="2">
-        <v>47016</v>
+        <v>47003</v>
       </c>
       <c r="F83" s="2">
-        <v>47016</v>
+        <v>47003</v>
       </c>
       <c r="G83">
         <v>7.7777777777777779E-2</v>
@@ -2870,16 +2870,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="2">
-        <v>47015</v>
+        <v>47002</v>
       </c>
       <c r="D84" s="2">
-        <v>47016</v>
+        <v>47003</v>
       </c>
       <c r="E84" s="2">
-        <v>47044</v>
+        <v>47031</v>
       </c>
       <c r="F84" s="2">
-        <v>47044</v>
+        <v>47031</v>
       </c>
       <c r="G84">
         <v>7.7777777777777779E-2</v>
@@ -2899,16 +2899,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="2">
-        <v>47043</v>
+        <v>47030</v>
       </c>
       <c r="D85" s="2">
-        <v>47044</v>
+        <v>47031</v>
       </c>
       <c r="E85" s="2">
-        <v>47072</v>
+        <v>47059</v>
       </c>
       <c r="F85" s="2">
-        <v>47072</v>
+        <v>47059</v>
       </c>
       <c r="G85">
         <v>7.7777777777777779E-2</v>
@@ -2928,16 +2928,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="2">
-        <v>47071</v>
+        <v>47058</v>
       </c>
       <c r="D86" s="2">
-        <v>47072</v>
+        <v>47059</v>
       </c>
       <c r="E86" s="2">
-        <v>47100</v>
+        <v>47087</v>
       </c>
       <c r="F86" s="2">
-        <v>47100</v>
+        <v>47087</v>
       </c>
       <c r="G86">
         <v>7.7777777777777779E-2</v>
@@ -2957,16 +2957,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="2">
-        <v>47099</v>
+        <v>47086</v>
       </c>
       <c r="D87" s="2">
-        <v>47100</v>
+        <v>47087</v>
       </c>
       <c r="E87" s="2">
-        <v>47128</v>
+        <v>47115</v>
       </c>
       <c r="F87" s="2">
-        <v>47128</v>
+        <v>47115</v>
       </c>
       <c r="G87">
         <v>7.7777777777777779E-2</v>
@@ -2986,16 +2986,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="2">
-        <v>47127</v>
+        <v>47114</v>
       </c>
       <c r="D88" s="2">
-        <v>47128</v>
+        <v>47115</v>
       </c>
       <c r="E88" s="2">
-        <v>47156</v>
+        <v>47143</v>
       </c>
       <c r="F88" s="2">
-        <v>47156</v>
+        <v>47143</v>
       </c>
       <c r="G88">
         <v>7.7777777777777779E-2</v>
@@ -3015,16 +3015,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="2">
-        <v>47155</v>
+        <v>47142</v>
       </c>
       <c r="D89" s="2">
-        <v>47156</v>
+        <v>47143</v>
       </c>
       <c r="E89" s="2">
-        <v>47184</v>
+        <v>47171</v>
       </c>
       <c r="F89" s="2">
-        <v>47184</v>
+        <v>47171</v>
       </c>
       <c r="G89">
         <v>7.7777777777777779E-2</v>
@@ -3044,16 +3044,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="2">
-        <v>47183</v>
+        <v>47170</v>
       </c>
       <c r="D90" s="2">
-        <v>47184</v>
+        <v>47171</v>
       </c>
       <c r="E90" s="2">
-        <v>47212</v>
+        <v>47199</v>
       </c>
       <c r="F90" s="2">
-        <v>47212</v>
+        <v>47199</v>
       </c>
       <c r="G90">
         <v>7.7777777777777779E-2</v>
@@ -3073,16 +3073,16 @@
         <v>90</v>
       </c>
       <c r="C91" s="2">
-        <v>47211</v>
+        <v>47198</v>
       </c>
       <c r="D91" s="2">
-        <v>47212</v>
+        <v>47199</v>
       </c>
       <c r="E91" s="2">
-        <v>47240</v>
+        <v>47227</v>
       </c>
       <c r="F91" s="2">
-        <v>47240</v>
+        <v>47227</v>
       </c>
       <c r="G91">
         <v>7.7777777777777779E-2</v>
@@ -3102,16 +3102,16 @@
         <v>91</v>
       </c>
       <c r="C92" s="2">
-        <v>47239</v>
+        <v>47226</v>
       </c>
       <c r="D92" s="2">
-        <v>47240</v>
+        <v>47227</v>
       </c>
       <c r="E92" s="2">
-        <v>47268</v>
+        <v>47255</v>
       </c>
       <c r="F92" s="2">
-        <v>47268</v>
+        <v>47255</v>
       </c>
       <c r="G92">
         <v>7.7777777777777779E-2</v>
@@ -3131,16 +3131,16 @@
         <v>92</v>
       </c>
       <c r="C93" s="2">
-        <v>47267</v>
+        <v>47254</v>
       </c>
       <c r="D93" s="2">
-        <v>47268</v>
+        <v>47255</v>
       </c>
       <c r="E93" s="2">
-        <v>47296</v>
+        <v>47283</v>
       </c>
       <c r="F93" s="2">
-        <v>47296</v>
+        <v>47283</v>
       </c>
       <c r="G93">
         <v>7.7777777777777779E-2</v>
@@ -3160,16 +3160,16 @@
         <v>93</v>
       </c>
       <c r="C94" s="2">
-        <v>47295</v>
+        <v>47282</v>
       </c>
       <c r="D94" s="2">
-        <v>47296</v>
+        <v>47283</v>
       </c>
       <c r="E94" s="2">
-        <v>47324</v>
+        <v>47311</v>
       </c>
       <c r="F94" s="2">
-        <v>47324</v>
+        <v>47311</v>
       </c>
       <c r="G94">
         <v>7.7777777777777779E-2</v>
@@ -3189,16 +3189,16 @@
         <v>94</v>
       </c>
       <c r="C95" s="2">
-        <v>47323</v>
+        <v>47310</v>
       </c>
       <c r="D95" s="2">
-        <v>47324</v>
+        <v>47311</v>
       </c>
       <c r="E95" s="2">
-        <v>47352</v>
+        <v>47339</v>
       </c>
       <c r="F95" s="2">
-        <v>47352</v>
+        <v>47339</v>
       </c>
       <c r="G95">
         <v>7.7777777777777779E-2</v>
@@ -3218,16 +3218,16 @@
         <v>95</v>
       </c>
       <c r="C96" s="2">
-        <v>47351</v>
+        <v>47338</v>
       </c>
       <c r="D96" s="2">
-        <v>47352</v>
+        <v>47339</v>
       </c>
       <c r="E96" s="2">
-        <v>47380</v>
+        <v>47367</v>
       </c>
       <c r="F96" s="2">
-        <v>47380</v>
+        <v>47367</v>
       </c>
       <c r="G96">
         <v>7.7777777777777779E-2</v>
@@ -3247,16 +3247,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="2">
-        <v>47379</v>
+        <v>47366</v>
       </c>
       <c r="D97" s="2">
-        <v>47380</v>
+        <v>47367</v>
       </c>
       <c r="E97" s="2">
-        <v>47408</v>
+        <v>47395</v>
       </c>
       <c r="F97" s="2">
-        <v>47408</v>
+        <v>47395</v>
       </c>
       <c r="G97">
         <v>7.7777777777777779E-2</v>
@@ -3276,16 +3276,16 @@
         <v>97</v>
       </c>
       <c r="C98" s="2">
-        <v>47407</v>
+        <v>47394</v>
       </c>
       <c r="D98" s="2">
-        <v>47408</v>
+        <v>47395</v>
       </c>
       <c r="E98" s="2">
-        <v>47436</v>
+        <v>47423</v>
       </c>
       <c r="F98" s="2">
-        <v>47436</v>
+        <v>47423</v>
       </c>
       <c r="G98">
         <v>7.7777777777777779E-2</v>
@@ -3305,16 +3305,16 @@
         <v>98</v>
       </c>
       <c r="C99" s="2">
-        <v>47435</v>
+        <v>47422</v>
       </c>
       <c r="D99" s="2">
-        <v>47436</v>
+        <v>47423</v>
       </c>
       <c r="E99" s="2">
-        <v>47464</v>
+        <v>47451</v>
       </c>
       <c r="F99" s="2">
-        <v>47464</v>
+        <v>47451</v>
       </c>
       <c r="G99">
         <v>7.7777777777777779E-2</v>
@@ -3334,16 +3334,16 @@
         <v>99</v>
       </c>
       <c r="C100" s="2">
-        <v>47463</v>
+        <v>47450</v>
       </c>
       <c r="D100" s="2">
-        <v>47464</v>
+        <v>47451</v>
       </c>
       <c r="E100" s="2">
-        <v>47492</v>
+        <v>47479</v>
       </c>
       <c r="F100" s="2">
-        <v>47492</v>
+        <v>47479</v>
       </c>
       <c r="G100">
         <v>7.7777777777777779E-2</v>
@@ -3363,16 +3363,16 @@
         <v>100</v>
       </c>
       <c r="C101" s="2">
-        <v>47491</v>
+        <v>47478</v>
       </c>
       <c r="D101" s="2">
-        <v>47492</v>
+        <v>47479</v>
       </c>
       <c r="E101" s="2">
-        <v>47520</v>
+        <v>47507</v>
       </c>
       <c r="F101" s="2">
-        <v>47520</v>
+        <v>47507</v>
       </c>
       <c r="G101">
         <v>7.7777777777777779E-2</v>
@@ -3392,16 +3392,16 @@
         <v>101</v>
       </c>
       <c r="C102" s="2">
-        <v>47519</v>
+        <v>47506</v>
       </c>
       <c r="D102" s="2">
-        <v>47520</v>
+        <v>47507</v>
       </c>
       <c r="E102" s="2">
-        <v>47548</v>
+        <v>47535</v>
       </c>
       <c r="F102" s="2">
-        <v>47548</v>
+        <v>47535</v>
       </c>
       <c r="G102">
         <v>7.7777777777777779E-2</v>
@@ -3421,16 +3421,16 @@
         <v>102</v>
       </c>
       <c r="C103" s="2">
-        <v>47547</v>
+        <v>47534</v>
       </c>
       <c r="D103" s="2">
-        <v>47548</v>
+        <v>47535</v>
       </c>
       <c r="E103" s="2">
-        <v>47576</v>
+        <v>47563</v>
       </c>
       <c r="F103" s="2">
-        <v>47576</v>
+        <v>47563</v>
       </c>
       <c r="G103">
         <v>7.7777777777777779E-2</v>
@@ -3450,16 +3450,16 @@
         <v>103</v>
       </c>
       <c r="C104" s="2">
-        <v>47575</v>
+        <v>47562</v>
       </c>
       <c r="D104" s="2">
-        <v>47576</v>
+        <v>47563</v>
       </c>
       <c r="E104" s="2">
-        <v>47604</v>
+        <v>47591</v>
       </c>
       <c r="F104" s="2">
-        <v>47604</v>
+        <v>47591</v>
       </c>
       <c r="G104">
         <v>7.7777777777777779E-2</v>
@@ -3479,16 +3479,16 @@
         <v>104</v>
       </c>
       <c r="C105" s="2">
-        <v>47603</v>
+        <v>47590</v>
       </c>
       <c r="D105" s="2">
-        <v>47604</v>
+        <v>47591</v>
       </c>
       <c r="E105" s="2">
-        <v>47632</v>
+        <v>47619</v>
       </c>
       <c r="F105" s="2">
-        <v>47632</v>
+        <v>47619</v>
       </c>
       <c r="G105">
         <v>7.7777777777777779E-2</v>
@@ -3508,16 +3508,16 @@
         <v>105</v>
       </c>
       <c r="C106" s="2">
-        <v>47631</v>
+        <v>47618</v>
       </c>
       <c r="D106" s="2">
-        <v>47632</v>
+        <v>47619</v>
       </c>
       <c r="E106" s="2">
-        <v>47660</v>
+        <v>47647</v>
       </c>
       <c r="F106" s="2">
-        <v>47660</v>
+        <v>47647</v>
       </c>
       <c r="G106">
         <v>7.7777777777777779E-2</v>
@@ -3537,16 +3537,16 @@
         <v>106</v>
       </c>
       <c r="C107" s="2">
-        <v>47659</v>
+        <v>47646</v>
       </c>
       <c r="D107" s="2">
-        <v>47660</v>
+        <v>47647</v>
       </c>
       <c r="E107" s="2">
-        <v>47688</v>
+        <v>47675</v>
       </c>
       <c r="F107" s="2">
-        <v>47688</v>
+        <v>47675</v>
       </c>
       <c r="G107">
         <v>7.7777777777777779E-2</v>
@@ -3566,16 +3566,16 @@
         <v>107</v>
       </c>
       <c r="C108" s="2">
-        <v>47687</v>
+        <v>47674</v>
       </c>
       <c r="D108" s="2">
-        <v>47688</v>
+        <v>47675</v>
       </c>
       <c r="E108" s="2">
-        <v>47716</v>
+        <v>47703</v>
       </c>
       <c r="F108" s="2">
-        <v>47716</v>
+        <v>47703</v>
       </c>
       <c r="G108">
         <v>7.7777777777777779E-2</v>
@@ -3595,16 +3595,16 @@
         <v>108</v>
       </c>
       <c r="C109" s="2">
-        <v>47715</v>
+        <v>47702</v>
       </c>
       <c r="D109" s="2">
-        <v>47716</v>
+        <v>47703</v>
       </c>
       <c r="E109" s="2">
-        <v>47744</v>
+        <v>47731</v>
       </c>
       <c r="F109" s="2">
-        <v>47744</v>
+        <v>47731</v>
       </c>
       <c r="G109">
         <v>7.7777777777777779E-2</v>
@@ -3624,16 +3624,16 @@
         <v>109</v>
       </c>
       <c r="C110" s="2">
-        <v>47743</v>
+        <v>47730</v>
       </c>
       <c r="D110" s="2">
-        <v>47744</v>
+        <v>47731</v>
       </c>
       <c r="E110" s="2">
-        <v>47772</v>
+        <v>47759</v>
       </c>
       <c r="F110" s="2">
-        <v>47772</v>
+        <v>47759</v>
       </c>
       <c r="G110">
         <v>7.7777777777777779E-2</v>
@@ -3653,16 +3653,16 @@
         <v>110</v>
       </c>
       <c r="C111" s="2">
-        <v>47771</v>
+        <v>47758</v>
       </c>
       <c r="D111" s="2">
-        <v>47772</v>
+        <v>47759</v>
       </c>
       <c r="E111" s="2">
-        <v>47800</v>
+        <v>47787</v>
       </c>
       <c r="F111" s="2">
-        <v>47800</v>
+        <v>47787</v>
       </c>
       <c r="G111">
         <v>7.7777777777777779E-2</v>
@@ -3682,16 +3682,16 @@
         <v>111</v>
       </c>
       <c r="C112" s="2">
-        <v>47799</v>
+        <v>47786</v>
       </c>
       <c r="D112" s="2">
-        <v>47800</v>
+        <v>47787</v>
       </c>
       <c r="E112" s="2">
-        <v>47828</v>
+        <v>47815</v>
       </c>
       <c r="F112" s="2">
-        <v>47828</v>
+        <v>47815</v>
       </c>
       <c r="G112">
         <v>7.7777777777777779E-2</v>
@@ -3711,16 +3711,16 @@
         <v>112</v>
       </c>
       <c r="C113" s="2">
-        <v>47827</v>
+        <v>47814</v>
       </c>
       <c r="D113" s="2">
-        <v>47828</v>
+        <v>47815</v>
       </c>
       <c r="E113" s="2">
-        <v>47856</v>
+        <v>47843</v>
       </c>
       <c r="F113" s="2">
-        <v>47856</v>
+        <v>47843</v>
       </c>
       <c r="G113">
         <v>7.7777777777777779E-2</v>
@@ -3740,16 +3740,16 @@
         <v>113</v>
       </c>
       <c r="C114" s="2">
-        <v>47855</v>
+        <v>47842</v>
       </c>
       <c r="D114" s="2">
-        <v>47856</v>
+        <v>47843</v>
       </c>
       <c r="E114" s="2">
-        <v>47884</v>
+        <v>47871</v>
       </c>
       <c r="F114" s="2">
-        <v>47884</v>
+        <v>47871</v>
       </c>
       <c r="G114">
         <v>7.7777777777777779E-2</v>
@@ -3769,16 +3769,16 @@
         <v>114</v>
       </c>
       <c r="C115" s="2">
-        <v>47883</v>
+        <v>47870</v>
       </c>
       <c r="D115" s="2">
-        <v>47884</v>
+        <v>47871</v>
       </c>
       <c r="E115" s="2">
-        <v>47912</v>
+        <v>47899</v>
       </c>
       <c r="F115" s="2">
-        <v>47912</v>
+        <v>47899</v>
       </c>
       <c r="G115">
         <v>7.7777777777777779E-2</v>
@@ -3798,16 +3798,16 @@
         <v>115</v>
       </c>
       <c r="C116" s="2">
-        <v>47911</v>
+        <v>47898</v>
       </c>
       <c r="D116" s="2">
-        <v>47912</v>
+        <v>47899</v>
       </c>
       <c r="E116" s="2">
-        <v>47940</v>
+        <v>47927</v>
       </c>
       <c r="F116" s="2">
-        <v>47940</v>
+        <v>47927</v>
       </c>
       <c r="G116">
         <v>7.7777777777777779E-2</v>
@@ -3827,16 +3827,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="2">
-        <v>47939</v>
+        <v>47926</v>
       </c>
       <c r="D117" s="2">
-        <v>47940</v>
+        <v>47927</v>
       </c>
       <c r="E117" s="2">
-        <v>47968</v>
+        <v>47955</v>
       </c>
       <c r="F117" s="2">
-        <v>47968</v>
+        <v>47955</v>
       </c>
       <c r="G117">
         <v>7.7777777777777779E-2</v>
@@ -3856,16 +3856,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="2">
-        <v>47967</v>
+        <v>47954</v>
       </c>
       <c r="D118" s="2">
-        <v>47968</v>
+        <v>47955</v>
       </c>
       <c r="E118" s="2">
-        <v>47996</v>
+        <v>47983</v>
       </c>
       <c r="F118" s="2">
-        <v>47996</v>
+        <v>47983</v>
       </c>
       <c r="G118">
         <v>7.7777777777777779E-2</v>
@@ -3885,16 +3885,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="2">
-        <v>47995</v>
+        <v>47982</v>
       </c>
       <c r="D119" s="2">
-        <v>47996</v>
+        <v>47983</v>
       </c>
       <c r="E119" s="2">
-        <v>48024</v>
+        <v>48011</v>
       </c>
       <c r="F119" s="2">
-        <v>48024</v>
+        <v>48011</v>
       </c>
       <c r="G119">
         <v>7.7777777777777779E-2</v>
@@ -3914,16 +3914,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="2">
-        <v>48023</v>
+        <v>48010</v>
       </c>
       <c r="D120" s="2">
-        <v>48024</v>
+        <v>48011</v>
       </c>
       <c r="E120" s="2">
-        <v>48052</v>
+        <v>48039</v>
       </c>
       <c r="F120" s="2">
-        <v>48052</v>
+        <v>48039</v>
       </c>
       <c r="G120">
         <v>7.7777777777777779E-2</v>
@@ -3943,16 +3943,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="2">
-        <v>48051</v>
+        <v>48038</v>
       </c>
       <c r="D121" s="2">
-        <v>48052</v>
+        <v>48039</v>
       </c>
       <c r="E121" s="2">
-        <v>48080</v>
+        <v>48067</v>
       </c>
       <c r="F121" s="2">
-        <v>48080</v>
+        <v>48067</v>
       </c>
       <c r="G121">
         <v>7.7777777777777779E-2</v>
@@ -3972,16 +3972,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="2">
-        <v>48079</v>
+        <v>48066</v>
       </c>
       <c r="D122" s="2">
-        <v>48080</v>
+        <v>48067</v>
       </c>
       <c r="E122" s="2">
-        <v>48108</v>
+        <v>48095</v>
       </c>
       <c r="F122" s="2">
-        <v>48108</v>
+        <v>48095</v>
       </c>
       <c r="G122">
         <v>7.7777777777777779E-2</v>
@@ -4001,16 +4001,16 @@
         <v>122</v>
       </c>
       <c r="C123" s="2">
-        <v>48107</v>
+        <v>48094</v>
       </c>
       <c r="D123" s="2">
-        <v>48108</v>
+        <v>48095</v>
       </c>
       <c r="E123" s="2">
-        <v>48136</v>
+        <v>48123</v>
       </c>
       <c r="F123" s="2">
-        <v>48136</v>
+        <v>48123</v>
       </c>
       <c r="G123">
         <v>7.7777777777777779E-2</v>
@@ -4030,16 +4030,16 @@
         <v>123</v>
       </c>
       <c r="C124" s="2">
-        <v>48135</v>
+        <v>48122</v>
       </c>
       <c r="D124" s="2">
-        <v>48136</v>
+        <v>48123</v>
       </c>
       <c r="E124" s="2">
-        <v>48164</v>
+        <v>48151</v>
       </c>
       <c r="F124" s="2">
-        <v>48164</v>
+        <v>48151</v>
       </c>
       <c r="G124">
         <v>7.7777777777777779E-2</v>
@@ -4059,16 +4059,16 @@
         <v>124</v>
       </c>
       <c r="C125" s="2">
-        <v>48163</v>
+        <v>48150</v>
       </c>
       <c r="D125" s="2">
-        <v>48164</v>
+        <v>48151</v>
       </c>
       <c r="E125" s="2">
-        <v>48192</v>
+        <v>48179</v>
       </c>
       <c r="F125" s="2">
-        <v>48192</v>
+        <v>48179</v>
       </c>
       <c r="G125">
         <v>7.7777777777777779E-2</v>
@@ -4088,16 +4088,16 @@
         <v>125</v>
       </c>
       <c r="C126" s="2">
-        <v>48191</v>
+        <v>48178</v>
       </c>
       <c r="D126" s="2">
-        <v>48192</v>
+        <v>48179</v>
       </c>
       <c r="E126" s="2">
-        <v>48220</v>
+        <v>48207</v>
       </c>
       <c r="F126" s="2">
-        <v>48220</v>
+        <v>48207</v>
       </c>
       <c r="G126">
         <v>7.7777777777777779E-2</v>
@@ -4117,16 +4117,16 @@
         <v>126</v>
       </c>
       <c r="C127" s="2">
-        <v>48219</v>
+        <v>48206</v>
       </c>
       <c r="D127" s="2">
-        <v>48220</v>
+        <v>48207</v>
       </c>
       <c r="E127" s="2">
-        <v>48248</v>
+        <v>48235</v>
       </c>
       <c r="F127" s="2">
-        <v>48248</v>
+        <v>48235</v>
       </c>
       <c r="G127">
         <v>7.7777777777777779E-2</v>
@@ -4146,16 +4146,16 @@
         <v>127</v>
       </c>
       <c r="C128" s="2">
-        <v>48247</v>
+        <v>48234</v>
       </c>
       <c r="D128" s="2">
-        <v>48248</v>
+        <v>48235</v>
       </c>
       <c r="E128" s="2">
-        <v>48276</v>
+        <v>48263</v>
       </c>
       <c r="F128" s="2">
-        <v>48276</v>
+        <v>48263</v>
       </c>
       <c r="G128">
         <v>7.7777777777777779E-2</v>
@@ -4175,16 +4175,16 @@
         <v>128</v>
       </c>
       <c r="C129" s="2">
-        <v>48275</v>
+        <v>48262</v>
       </c>
       <c r="D129" s="2">
-        <v>48276</v>
+        <v>48263</v>
       </c>
       <c r="E129" s="2">
-        <v>48304</v>
+        <v>48291</v>
       </c>
       <c r="F129" s="2">
-        <v>48304</v>
+        <v>48291</v>
       </c>
       <c r="G129">
         <v>7.7777777777777779E-2</v>
@@ -4204,16 +4204,16 @@
         <v>129</v>
       </c>
       <c r="C130" s="2">
-        <v>48303</v>
+        <v>48290</v>
       </c>
       <c r="D130" s="2">
-        <v>48304</v>
+        <v>48291</v>
       </c>
       <c r="E130" s="2">
-        <v>48332</v>
+        <v>48319</v>
       </c>
       <c r="F130" s="2">
-        <v>48332</v>
+        <v>48319</v>
       </c>
       <c r="G130">
         <v>7.7777777777777779E-2</v>
@@ -4233,16 +4233,16 @@
         <v>130</v>
       </c>
       <c r="C131" s="2">
-        <v>48331</v>
+        <v>48318</v>
       </c>
       <c r="D131" s="2">
-        <v>48332</v>
+        <v>48319</v>
       </c>
       <c r="E131" s="2">
-        <v>48360</v>
+        <v>48347</v>
       </c>
       <c r="F131" s="2">
-        <v>48360</v>
+        <v>48347</v>
       </c>
       <c r="G131">
         <v>7.7777777777777779E-2</v>
@@ -4262,16 +4262,16 @@
         <v>131</v>
       </c>
       <c r="C132" s="2">
-        <v>48359</v>
+        <v>48346</v>
       </c>
       <c r="D132" s="2">
-        <v>48360</v>
+        <v>48347</v>
       </c>
       <c r="E132" s="2">
-        <v>48388</v>
+        <v>48375</v>
       </c>
       <c r="F132" s="2">
-        <v>48388</v>
+        <v>48375</v>
       </c>
       <c r="G132">
         <v>7.7777777777777779E-2</v>
@@ -4291,16 +4291,16 @@
         <v>132</v>
       </c>
       <c r="C133" s="2">
-        <v>48387</v>
+        <v>48374</v>
       </c>
       <c r="D133" s="2">
-        <v>48388</v>
+        <v>48375</v>
       </c>
       <c r="E133" s="2">
-        <v>48416</v>
+        <v>48403</v>
       </c>
       <c r="F133" s="2">
-        <v>48416</v>
+        <v>48403</v>
       </c>
       <c r="G133">
         <v>7.7777777777777779E-2</v>
@@ -4320,16 +4320,16 @@
         <v>133</v>
       </c>
       <c r="C134" s="2">
-        <v>48415</v>
+        <v>48402</v>
       </c>
       <c r="D134" s="2">
-        <v>48416</v>
+        <v>48403</v>
       </c>
       <c r="E134" s="2">
-        <v>48444</v>
+        <v>48431</v>
       </c>
       <c r="F134" s="2">
-        <v>48444</v>
+        <v>48431</v>
       </c>
       <c r="G134">
         <v>7.7777777777777779E-2</v>
@@ -4349,16 +4349,16 @@
         <v>134</v>
       </c>
       <c r="C135" s="2">
-        <v>48443</v>
+        <v>48430</v>
       </c>
       <c r="D135" s="2">
-        <v>48444</v>
+        <v>48431</v>
       </c>
       <c r="E135" s="2">
-        <v>48472</v>
+        <v>48459</v>
       </c>
       <c r="F135" s="2">
-        <v>48472</v>
+        <v>48459</v>
       </c>
       <c r="G135">
         <v>7.7777777777777779E-2</v>
@@ -4378,16 +4378,16 @@
         <v>135</v>
       </c>
       <c r="C136" s="2">
-        <v>48471</v>
+        <v>48458</v>
       </c>
       <c r="D136" s="2">
-        <v>48472</v>
+        <v>48459</v>
       </c>
       <c r="E136" s="2">
-        <v>48500</v>
+        <v>48487</v>
       </c>
       <c r="F136" s="2">
-        <v>48500</v>
+        <v>48487</v>
       </c>
       <c r="G136">
         <v>7.7777777777777779E-2</v>
@@ -4407,16 +4407,16 @@
         <v>136</v>
       </c>
       <c r="C137" s="2">
-        <v>48499</v>
+        <v>48486</v>
       </c>
       <c r="D137" s="2">
-        <v>48500</v>
+        <v>48487</v>
       </c>
       <c r="E137" s="2">
-        <v>48528</v>
+        <v>48515</v>
       </c>
       <c r="F137" s="2">
-        <v>48528</v>
+        <v>48515</v>
       </c>
       <c r="G137">
         <v>7.7777777777777779E-2</v>
@@ -4436,16 +4436,16 @@
         <v>137</v>
       </c>
       <c r="C138" s="2">
-        <v>48527</v>
+        <v>48514</v>
       </c>
       <c r="D138" s="2">
-        <v>48528</v>
+        <v>48515</v>
       </c>
       <c r="E138" s="2">
-        <v>48556</v>
+        <v>48543</v>
       </c>
       <c r="F138" s="2">
-        <v>48556</v>
+        <v>48543</v>
       </c>
       <c r="G138">
         <v>7.7777777777777779E-2</v>
@@ -4465,16 +4465,16 @@
         <v>138</v>
       </c>
       <c r="C139" s="2">
-        <v>48555</v>
+        <v>48542</v>
       </c>
       <c r="D139" s="2">
-        <v>48556</v>
+        <v>48543</v>
       </c>
       <c r="E139" s="2">
-        <v>48584</v>
+        <v>48571</v>
       </c>
       <c r="F139" s="2">
-        <v>48584</v>
+        <v>48571</v>
       </c>
       <c r="G139">
         <v>7.7777777777777779E-2</v>
@@ -4494,16 +4494,16 @@
         <v>139</v>
       </c>
       <c r="C140" s="2">
-        <v>48583</v>
+        <v>48570</v>
       </c>
       <c r="D140" s="2">
-        <v>48584</v>
+        <v>48571</v>
       </c>
       <c r="E140" s="2">
-        <v>48612</v>
+        <v>48599</v>
       </c>
       <c r="F140" s="2">
-        <v>48612</v>
+        <v>48599</v>
       </c>
       <c r="G140">
         <v>7.7777777777777779E-2</v>
@@ -4523,16 +4523,16 @@
         <v>140</v>
       </c>
       <c r="C141" s="2">
-        <v>48611</v>
+        <v>48598</v>
       </c>
       <c r="D141" s="2">
-        <v>48612</v>
+        <v>48599</v>
       </c>
       <c r="E141" s="2">
-        <v>48640</v>
+        <v>48627</v>
       </c>
       <c r="F141" s="2">
-        <v>48640</v>
+        <v>48627</v>
       </c>
       <c r="G141">
         <v>7.7777777777777779E-2</v>
@@ -4552,16 +4552,16 @@
         <v>141</v>
       </c>
       <c r="C142" s="2">
-        <v>48639</v>
+        <v>48626</v>
       </c>
       <c r="D142" s="2">
-        <v>48640</v>
+        <v>48627</v>
       </c>
       <c r="E142" s="2">
-        <v>48668</v>
+        <v>48655</v>
       </c>
       <c r="F142" s="2">
-        <v>48668</v>
+        <v>48655</v>
       </c>
       <c r="G142">
         <v>7.7777777777777779E-2</v>
@@ -4581,16 +4581,16 @@
         <v>142</v>
       </c>
       <c r="C143" s="2">
-        <v>48667</v>
+        <v>48654</v>
       </c>
       <c r="D143" s="2">
-        <v>48668</v>
+        <v>48655</v>
       </c>
       <c r="E143" s="2">
-        <v>48696</v>
+        <v>48683</v>
       </c>
       <c r="F143" s="2">
-        <v>48696</v>
+        <v>48683</v>
       </c>
       <c r="G143">
         <v>7.7777777777777779E-2</v>
@@ -4610,16 +4610,16 @@
         <v>143</v>
       </c>
       <c r="C144" s="2">
-        <v>48695</v>
+        <v>48682</v>
       </c>
       <c r="D144" s="2">
-        <v>48696</v>
+        <v>48683</v>
       </c>
       <c r="E144" s="2">
-        <v>48724</v>
+        <v>48711</v>
       </c>
       <c r="F144" s="2">
-        <v>48724</v>
+        <v>48711</v>
       </c>
       <c r="G144">
         <v>7.7777777777777779E-2</v>
@@ -4639,16 +4639,16 @@
         <v>144</v>
       </c>
       <c r="C145" s="2">
-        <v>48723</v>
+        <v>48710</v>
       </c>
       <c r="D145" s="2">
-        <v>48724</v>
+        <v>48711</v>
       </c>
       <c r="E145" s="2">
-        <v>48752</v>
+        <v>48739</v>
       </c>
       <c r="F145" s="2">
-        <v>48752</v>
+        <v>48739</v>
       </c>
       <c r="G145">
         <v>7.7777777777777779E-2</v>
@@ -4668,16 +4668,16 @@
         <v>145</v>
       </c>
       <c r="C146" s="2">
-        <v>48751</v>
+        <v>48738</v>
       </c>
       <c r="D146" s="2">
-        <v>48752</v>
+        <v>48739</v>
       </c>
       <c r="E146" s="2">
-        <v>48780</v>
+        <v>48767</v>
       </c>
       <c r="F146" s="2">
-        <v>48780</v>
+        <v>48767</v>
       </c>
       <c r="G146">
         <v>7.7777777777777779E-2</v>
@@ -4697,16 +4697,16 @@
         <v>146</v>
       </c>
       <c r="C147" s="2">
-        <v>48779</v>
+        <v>48766</v>
       </c>
       <c r="D147" s="2">
-        <v>48780</v>
+        <v>48767</v>
       </c>
       <c r="E147" s="2">
-        <v>48808</v>
+        <v>48795</v>
       </c>
       <c r="F147" s="2">
-        <v>48808</v>
+        <v>48795</v>
       </c>
       <c r="G147">
         <v>7.7777777777777779E-2</v>
@@ -4726,16 +4726,16 @@
         <v>147</v>
       </c>
       <c r="C148" s="2">
-        <v>48807</v>
+        <v>48794</v>
       </c>
       <c r="D148" s="2">
-        <v>48808</v>
+        <v>48795</v>
       </c>
       <c r="E148" s="2">
-        <v>48836</v>
+        <v>48823</v>
       </c>
       <c r="F148" s="2">
-        <v>48836</v>
+        <v>48823</v>
       </c>
       <c r="G148">
         <v>7.7777777777777779E-2</v>
@@ -4755,16 +4755,16 @@
         <v>148</v>
       </c>
       <c r="C149" s="2">
-        <v>48835</v>
+        <v>48822</v>
       </c>
       <c r="D149" s="2">
-        <v>48836</v>
+        <v>48823</v>
       </c>
       <c r="E149" s="2">
-        <v>48864</v>
+        <v>48851</v>
       </c>
       <c r="F149" s="2">
-        <v>48864</v>
+        <v>48851</v>
       </c>
       <c r="G149">
         <v>7.7777777777777779E-2</v>
@@ -4784,16 +4784,16 @@
         <v>149</v>
       </c>
       <c r="C150" s="2">
-        <v>48863</v>
+        <v>48850</v>
       </c>
       <c r="D150" s="2">
-        <v>48864</v>
+        <v>48851</v>
       </c>
       <c r="E150" s="2">
-        <v>48892</v>
+        <v>48879</v>
       </c>
       <c r="F150" s="2">
-        <v>48892</v>
+        <v>48879</v>
       </c>
       <c r="G150">
         <v>7.7777777777777779E-2</v>
@@ -4813,16 +4813,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="2">
-        <v>48891</v>
+        <v>48878</v>
       </c>
       <c r="D151" s="2">
-        <v>48892</v>
+        <v>48879</v>
       </c>
       <c r="E151" s="2">
-        <v>48920</v>
+        <v>48907</v>
       </c>
       <c r="F151" s="2">
-        <v>48920</v>
+        <v>48907</v>
       </c>
       <c r="G151">
         <v>7.7777777777777779E-2</v>
@@ -4842,16 +4842,16 @@
         <v>151</v>
       </c>
       <c r="C152" s="2">
-        <v>48919</v>
+        <v>48906</v>
       </c>
       <c r="D152" s="2">
-        <v>48920</v>
+        <v>48907</v>
       </c>
       <c r="E152" s="2">
-        <v>48948</v>
+        <v>48935</v>
       </c>
       <c r="F152" s="2">
-        <v>48948</v>
+        <v>48935</v>
       </c>
       <c r="G152">
         <v>7.7777777777777779E-2</v>
@@ -4871,16 +4871,16 @@
         <v>152</v>
       </c>
       <c r="C153" s="2">
-        <v>48947</v>
+        <v>48934</v>
       </c>
       <c r="D153" s="2">
-        <v>48948</v>
+        <v>48935</v>
       </c>
       <c r="E153" s="2">
-        <v>48976</v>
+        <v>48963</v>
       </c>
       <c r="F153" s="2">
-        <v>48976</v>
+        <v>48963</v>
       </c>
       <c r="G153">
         <v>7.7777777777777779E-2</v>
@@ -4900,16 +4900,16 @@
         <v>153</v>
       </c>
       <c r="C154" s="2">
-        <v>48975</v>
+        <v>48962</v>
       </c>
       <c r="D154" s="2">
-        <v>48976</v>
+        <v>48963</v>
       </c>
       <c r="E154" s="2">
-        <v>49004</v>
+        <v>48991</v>
       </c>
       <c r="F154" s="2">
-        <v>49004</v>
+        <v>48991</v>
       </c>
       <c r="G154">
         <v>7.7777777777777779E-2</v>
@@ -4929,16 +4929,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="2">
-        <v>49003</v>
+        <v>48990</v>
       </c>
       <c r="D155" s="2">
-        <v>49004</v>
+        <v>48991</v>
       </c>
       <c r="E155" s="2">
-        <v>49032</v>
+        <v>49019</v>
       </c>
       <c r="F155" s="2">
-        <v>49032</v>
+        <v>49019</v>
       </c>
       <c r="G155">
         <v>7.7777777777777779E-2</v>
@@ -4958,16 +4958,16 @@
         <v>155</v>
       </c>
       <c r="C156" s="2">
-        <v>49031</v>
+        <v>49018</v>
       </c>
       <c r="D156" s="2">
-        <v>49032</v>
+        <v>49019</v>
       </c>
       <c r="E156" s="2">
-        <v>49060</v>
+        <v>49047</v>
       </c>
       <c r="F156" s="2">
-        <v>49060</v>
+        <v>49047</v>
       </c>
       <c r="G156">
         <v>7.7777777777777779E-2</v>
@@ -4987,16 +4987,16 @@
         <v>156</v>
       </c>
       <c r="C157" s="2">
-        <v>49059</v>
+        <v>49046</v>
       </c>
       <c r="D157" s="2">
-        <v>49060</v>
+        <v>49047</v>
       </c>
       <c r="E157" s="2">
-        <v>49088</v>
+        <v>49075</v>
       </c>
       <c r="F157" s="2">
-        <v>49088</v>
+        <v>49075</v>
       </c>
       <c r="G157">
         <v>7.7777777777777779E-2</v>
@@ -5016,16 +5016,16 @@
         <v>157</v>
       </c>
       <c r="C158" s="2">
-        <v>49087</v>
+        <v>49074</v>
       </c>
       <c r="D158" s="2">
-        <v>49088</v>
+        <v>49075</v>
       </c>
       <c r="E158" s="2">
-        <v>49116</v>
+        <v>49103</v>
       </c>
       <c r="F158" s="2">
-        <v>49116</v>
+        <v>49103</v>
       </c>
       <c r="G158">
         <v>7.7777777777777779E-2</v>
@@ -5045,16 +5045,16 @@
         <v>158</v>
       </c>
       <c r="C159" s="2">
-        <v>49115</v>
+        <v>49102</v>
       </c>
       <c r="D159" s="2">
-        <v>49116</v>
+        <v>49103</v>
       </c>
       <c r="E159" s="2">
-        <v>49144</v>
+        <v>49131</v>
       </c>
       <c r="F159" s="2">
-        <v>49144</v>
+        <v>49131</v>
       </c>
       <c r="G159">
         <v>7.7777777777777779E-2</v>
@@ -5074,16 +5074,16 @@
         <v>159</v>
       </c>
       <c r="C160" s="2">
-        <v>49143</v>
+        <v>49130</v>
       </c>
       <c r="D160" s="2">
-        <v>49144</v>
+        <v>49131</v>
       </c>
       <c r="E160" s="2">
-        <v>49172</v>
+        <v>49159</v>
       </c>
       <c r="F160" s="2">
-        <v>49172</v>
+        <v>49159</v>
       </c>
       <c r="G160">
         <v>7.7777777777777779E-2</v>
@@ -5103,16 +5103,16 @@
         <v>160</v>
       </c>
       <c r="C161" s="2">
-        <v>49171</v>
+        <v>49158</v>
       </c>
       <c r="D161" s="2">
-        <v>49172</v>
+        <v>49159</v>
       </c>
       <c r="E161" s="2">
-        <v>49200</v>
+        <v>49187</v>
       </c>
       <c r="F161" s="2">
-        <v>49200</v>
+        <v>49187</v>
       </c>
       <c r="G161">
         <v>7.7777777777777779E-2</v>
@@ -5132,16 +5132,16 @@
         <v>161</v>
       </c>
       <c r="C162" s="2">
-        <v>49199</v>
+        <v>49186</v>
       </c>
       <c r="D162" s="2">
-        <v>49200</v>
+        <v>49187</v>
       </c>
       <c r="E162" s="2">
-        <v>49228</v>
+        <v>49215</v>
       </c>
       <c r="F162" s="2">
-        <v>49228</v>
+        <v>49215</v>
       </c>
       <c r="G162">
         <v>7.7777777777777779E-2</v>
@@ -5161,16 +5161,16 @@
         <v>162</v>
       </c>
       <c r="C163" s="2">
-        <v>49227</v>
+        <v>49214</v>
       </c>
       <c r="D163" s="2">
-        <v>49228</v>
+        <v>49215</v>
       </c>
       <c r="E163" s="2">
-        <v>49256</v>
+        <v>49243</v>
       </c>
       <c r="F163" s="2">
-        <v>49256</v>
+        <v>49243</v>
       </c>
       <c r="G163">
         <v>7.7777777777777779E-2</v>
@@ -5190,16 +5190,16 @@
         <v>163</v>
       </c>
       <c r="C164" s="2">
-        <v>49255</v>
+        <v>49242</v>
       </c>
       <c r="D164" s="2">
-        <v>49256</v>
+        <v>49243</v>
       </c>
       <c r="E164" s="2">
-        <v>49284</v>
+        <v>49271</v>
       </c>
       <c r="F164" s="2">
-        <v>49284</v>
+        <v>49271</v>
       </c>
       <c r="G164">
         <v>7.7777777777777779E-2</v>
@@ -5219,16 +5219,16 @@
         <v>164</v>
       </c>
       <c r="C165" s="2">
-        <v>49283</v>
+        <v>49270</v>
       </c>
       <c r="D165" s="2">
-        <v>49284</v>
+        <v>49271</v>
       </c>
       <c r="E165" s="2">
-        <v>49312</v>
+        <v>49299</v>
       </c>
       <c r="F165" s="2">
-        <v>49312</v>
+        <v>49299</v>
       </c>
       <c r="G165">
         <v>7.7777777777777779E-2</v>
@@ -5248,16 +5248,16 @@
         <v>165</v>
       </c>
       <c r="C166" s="2">
-        <v>49311</v>
+        <v>49298</v>
       </c>
       <c r="D166" s="2">
-        <v>49312</v>
+        <v>49299</v>
       </c>
       <c r="E166" s="2">
-        <v>49340</v>
+        <v>49327</v>
       </c>
       <c r="F166" s="2">
-        <v>49340</v>
+        <v>49327</v>
       </c>
       <c r="G166">
         <v>7.7777777777777779E-2</v>
@@ -5277,16 +5277,16 @@
         <v>166</v>
       </c>
       <c r="C167" s="2">
-        <v>49339</v>
+        <v>49326</v>
       </c>
       <c r="D167" s="2">
-        <v>49340</v>
+        <v>49327</v>
       </c>
       <c r="E167" s="2">
-        <v>49368</v>
+        <v>49355</v>
       </c>
       <c r="F167" s="2">
-        <v>49368</v>
+        <v>49355</v>
       </c>
       <c r="G167">
         <v>7.7777777777777779E-2</v>
@@ -5306,16 +5306,16 @@
         <v>167</v>
       </c>
       <c r="C168" s="2">
-        <v>49367</v>
+        <v>49354</v>
       </c>
       <c r="D168" s="2">
-        <v>49368</v>
+        <v>49355</v>
       </c>
       <c r="E168" s="2">
-        <v>49396</v>
+        <v>49383</v>
       </c>
       <c r="F168" s="2">
-        <v>49396</v>
+        <v>49383</v>
       </c>
       <c r="G168">
         <v>7.7777777777777779E-2</v>
@@ -5335,16 +5335,16 @@
         <v>168</v>
       </c>
       <c r="C169" s="2">
-        <v>49395</v>
+        <v>49382</v>
       </c>
       <c r="D169" s="2">
-        <v>49396</v>
+        <v>49383</v>
       </c>
       <c r="E169" s="2">
-        <v>49424</v>
+        <v>49411</v>
       </c>
       <c r="F169" s="2">
-        <v>49424</v>
+        <v>49411</v>
       </c>
       <c r="G169">
         <v>7.7777777777777779E-2</v>
@@ -5364,16 +5364,16 @@
         <v>169</v>
       </c>
       <c r="C170" s="2">
-        <v>49423</v>
+        <v>49410</v>
       </c>
       <c r="D170" s="2">
-        <v>49424</v>
+        <v>49411</v>
       </c>
       <c r="E170" s="2">
-        <v>49452</v>
+        <v>49439</v>
       </c>
       <c r="F170" s="2">
-        <v>49452</v>
+        <v>49439</v>
       </c>
       <c r="G170">
         <v>7.7777777777777779E-2</v>
@@ -5393,16 +5393,16 @@
         <v>170</v>
       </c>
       <c r="C171" s="2">
-        <v>49451</v>
+        <v>49438</v>
       </c>
       <c r="D171" s="2">
-        <v>49452</v>
+        <v>49439</v>
       </c>
       <c r="E171" s="2">
-        <v>49480</v>
+        <v>49467</v>
       </c>
       <c r="F171" s="2">
-        <v>49480</v>
+        <v>49467</v>
       </c>
       <c r="G171">
         <v>7.7777777777777779E-2</v>
@@ -5422,16 +5422,16 @@
         <v>171</v>
       </c>
       <c r="C172" s="2">
-        <v>49479</v>
+        <v>49466</v>
       </c>
       <c r="D172" s="2">
-        <v>49480</v>
+        <v>49467</v>
       </c>
       <c r="E172" s="2">
-        <v>49508</v>
+        <v>49495</v>
       </c>
       <c r="F172" s="2">
-        <v>49508</v>
+        <v>49495</v>
       </c>
       <c r="G172">
         <v>7.7777777777777779E-2</v>
@@ -5451,16 +5451,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="2">
-        <v>49507</v>
+        <v>49494</v>
       </c>
       <c r="D173" s="2">
-        <v>49508</v>
+        <v>49495</v>
       </c>
       <c r="E173" s="2">
-        <v>49536</v>
+        <v>49523</v>
       </c>
       <c r="F173" s="2">
-        <v>49536</v>
+        <v>49523</v>
       </c>
       <c r="G173">
         <v>7.7777777777777779E-2</v>
@@ -5480,16 +5480,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="2">
-        <v>49535</v>
+        <v>49522</v>
       </c>
       <c r="D174" s="2">
-        <v>49536</v>
+        <v>49523</v>
       </c>
       <c r="E174" s="2">
-        <v>49564</v>
+        <v>49551</v>
       </c>
       <c r="F174" s="2">
-        <v>49564</v>
+        <v>49551</v>
       </c>
       <c r="G174">
         <v>7.7777777777777779E-2</v>
@@ -5509,16 +5509,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="2">
-        <v>49563</v>
+        <v>49550</v>
       </c>
       <c r="D175" s="2">
-        <v>49564</v>
+        <v>49551</v>
       </c>
       <c r="E175" s="2">
-        <v>49592</v>
+        <v>49579</v>
       </c>
       <c r="F175" s="2">
-        <v>49592</v>
+        <v>49579</v>
       </c>
       <c r="G175">
         <v>7.7777777777777779E-2</v>
@@ -5538,16 +5538,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="2">
-        <v>49591</v>
+        <v>49578</v>
       </c>
       <c r="D176" s="2">
-        <v>49592</v>
+        <v>49579</v>
       </c>
       <c r="E176" s="2">
-        <v>49620</v>
+        <v>49607</v>
       </c>
       <c r="F176" s="2">
-        <v>49620</v>
+        <v>49607</v>
       </c>
       <c r="G176">
         <v>7.7777777777777779E-2</v>
@@ -5567,16 +5567,16 @@
         <v>176</v>
       </c>
       <c r="C177" s="2">
-        <v>49619</v>
+        <v>49606</v>
       </c>
       <c r="D177" s="2">
-        <v>49620</v>
+        <v>49607</v>
       </c>
       <c r="E177" s="2">
-        <v>49648</v>
+        <v>49635</v>
       </c>
       <c r="F177" s="2">
-        <v>49648</v>
+        <v>49635</v>
       </c>
       <c r="G177">
         <v>7.7777777777777779E-2</v>
@@ -5596,16 +5596,16 @@
         <v>177</v>
       </c>
       <c r="C178" s="2">
-        <v>49647</v>
+        <v>49634</v>
       </c>
       <c r="D178" s="2">
-        <v>49648</v>
+        <v>49635</v>
       </c>
       <c r="E178" s="2">
-        <v>49676</v>
+        <v>49663</v>
       </c>
       <c r="F178" s="2">
-        <v>49676</v>
+        <v>49663</v>
       </c>
       <c r="G178">
         <v>7.7777777777777779E-2</v>
@@ -5625,16 +5625,16 @@
         <v>178</v>
       </c>
       <c r="C179" s="2">
-        <v>49675</v>
+        <v>49662</v>
       </c>
       <c r="D179" s="2">
-        <v>49676</v>
+        <v>49663</v>
       </c>
       <c r="E179" s="2">
-        <v>49704</v>
+        <v>49691</v>
       </c>
       <c r="F179" s="2">
-        <v>49704</v>
+        <v>49691</v>
       </c>
       <c r="G179">
         <v>7.7777777777777779E-2</v>
@@ -5654,16 +5654,16 @@
         <v>179</v>
       </c>
       <c r="C180" s="2">
-        <v>49703</v>
+        <v>49690</v>
       </c>
       <c r="D180" s="2">
-        <v>49704</v>
+        <v>49691</v>
       </c>
       <c r="E180" s="2">
-        <v>49732</v>
+        <v>49719</v>
       </c>
       <c r="F180" s="2">
-        <v>49732</v>
+        <v>49719</v>
       </c>
       <c r="G180">
         <v>7.7777777777777779E-2</v>
@@ -5683,16 +5683,16 @@
         <v>180</v>
       </c>
       <c r="C181" s="2">
-        <v>49731</v>
+        <v>49718</v>
       </c>
       <c r="D181" s="2">
-        <v>49732</v>
+        <v>49719</v>
       </c>
       <c r="E181" s="2">
-        <v>49760</v>
+        <v>49747</v>
       </c>
       <c r="F181" s="2">
-        <v>49760</v>
+        <v>49747</v>
       </c>
       <c r="G181">
         <v>7.7777777777777779E-2</v>
@@ -5712,16 +5712,16 @@
         <v>181</v>
       </c>
       <c r="C182" s="2">
-        <v>49759</v>
+        <v>49746</v>
       </c>
       <c r="D182" s="2">
-        <v>49760</v>
+        <v>49747</v>
       </c>
       <c r="E182" s="2">
-        <v>49788</v>
+        <v>49775</v>
       </c>
       <c r="F182" s="2">
-        <v>49788</v>
+        <v>49775</v>
       </c>
       <c r="G182">
         <v>7.7777777777777779E-2</v>
@@ -5741,16 +5741,16 @@
         <v>182</v>
       </c>
       <c r="C183" s="2">
-        <v>49787</v>
+        <v>49774</v>
       </c>
       <c r="D183" s="2">
-        <v>49788</v>
+        <v>49775</v>
       </c>
       <c r="E183" s="2">
-        <v>49816</v>
+        <v>49803</v>
       </c>
       <c r="F183" s="2">
-        <v>49816</v>
+        <v>49803</v>
       </c>
       <c r="G183">
         <v>7.7777777777777779E-2</v>
@@ -5770,16 +5770,16 @@
         <v>183</v>
       </c>
       <c r="C184" s="2">
-        <v>49815</v>
+        <v>49802</v>
       </c>
       <c r="D184" s="2">
-        <v>49816</v>
+        <v>49803</v>
       </c>
       <c r="E184" s="2">
-        <v>49844</v>
+        <v>49831</v>
       </c>
       <c r="F184" s="2">
-        <v>49844</v>
+        <v>49831</v>
       </c>
       <c r="G184">
         <v>7.7777777777777779E-2</v>
@@ -5799,16 +5799,16 @@
         <v>184</v>
       </c>
       <c r="C185" s="2">
-        <v>49843</v>
+        <v>49830</v>
       </c>
       <c r="D185" s="2">
-        <v>49844</v>
+        <v>49831</v>
       </c>
       <c r="E185" s="2">
-        <v>49872</v>
+        <v>49859</v>
       </c>
       <c r="F185" s="2">
-        <v>49872</v>
+        <v>49859</v>
       </c>
       <c r="G185">
         <v>7.7777777777777779E-2</v>
@@ -5828,16 +5828,16 @@
         <v>185</v>
       </c>
       <c r="C186" s="2">
-        <v>49871</v>
+        <v>49858</v>
       </c>
       <c r="D186" s="2">
-        <v>49872</v>
+        <v>49859</v>
       </c>
       <c r="E186" s="2">
-        <v>49900</v>
+        <v>49887</v>
       </c>
       <c r="F186" s="2">
-        <v>49900</v>
+        <v>49887</v>
       </c>
       <c r="G186">
         <v>7.7777777777777779E-2</v>
@@ -5857,16 +5857,16 @@
         <v>186</v>
       </c>
       <c r="C187" s="2">
-        <v>49899</v>
+        <v>49886</v>
       </c>
       <c r="D187" s="2">
-        <v>49900</v>
+        <v>49887</v>
       </c>
       <c r="E187" s="2">
-        <v>49928</v>
+        <v>49915</v>
       </c>
       <c r="F187" s="2">
-        <v>49928</v>
+        <v>49915</v>
       </c>
       <c r="G187">
         <v>7.7777777777777779E-2</v>
@@ -5886,16 +5886,16 @@
         <v>187</v>
       </c>
       <c r="C188" s="2">
-        <v>49927</v>
+        <v>49914</v>
       </c>
       <c r="D188" s="2">
-        <v>49928</v>
+        <v>49915</v>
       </c>
       <c r="E188" s="2">
-        <v>49956</v>
+        <v>49943</v>
       </c>
       <c r="F188" s="2">
-        <v>49956</v>
+        <v>49943</v>
       </c>
       <c r="G188">
         <v>7.7777777777777779E-2</v>
@@ -5915,16 +5915,16 @@
         <v>188</v>
       </c>
       <c r="C189" s="2">
-        <v>49955</v>
+        <v>49942</v>
       </c>
       <c r="D189" s="2">
-        <v>49956</v>
+        <v>49943</v>
       </c>
       <c r="E189" s="2">
-        <v>49984</v>
+        <v>49971</v>
       </c>
       <c r="F189" s="2">
-        <v>49984</v>
+        <v>49971</v>
       </c>
       <c r="G189">
         <v>7.7777777777777779E-2</v>
@@ -5944,16 +5944,16 @@
         <v>189</v>
       </c>
       <c r="C190" s="2">
-        <v>49983</v>
+        <v>49970</v>
       </c>
       <c r="D190" s="2">
-        <v>49984</v>
+        <v>49971</v>
       </c>
       <c r="E190" s="2">
-        <v>50012</v>
+        <v>49999</v>
       </c>
       <c r="F190" s="2">
-        <v>50012</v>
+        <v>49999</v>
       </c>
       <c r="G190">
         <v>7.7777777777777779E-2</v>
@@ -5973,16 +5973,16 @@
         <v>190</v>
       </c>
       <c r="C191" s="2">
-        <v>50011</v>
+        <v>49998</v>
       </c>
       <c r="D191" s="2">
-        <v>50012</v>
+        <v>49999</v>
       </c>
       <c r="E191" s="2">
-        <v>50040</v>
+        <v>50027</v>
       </c>
       <c r="F191" s="2">
-        <v>50040</v>
+        <v>50027</v>
       </c>
       <c r="G191">
         <v>7.7777777777777779E-2</v>
@@ -6002,16 +6002,16 @@
         <v>191</v>
       </c>
       <c r="C192" s="2">
-        <v>50039</v>
+        <v>50026</v>
       </c>
       <c r="D192" s="2">
-        <v>50040</v>
+        <v>50027</v>
       </c>
       <c r="E192" s="2">
-        <v>50068</v>
+        <v>50055</v>
       </c>
       <c r="F192" s="2">
-        <v>50068</v>
+        <v>50055</v>
       </c>
       <c r="G192">
         <v>7.7777777777777779E-2</v>
@@ -6031,16 +6031,16 @@
         <v>192</v>
       </c>
       <c r="C193" s="2">
-        <v>50067</v>
+        <v>50054</v>
       </c>
       <c r="D193" s="2">
-        <v>50068</v>
+        <v>50055</v>
       </c>
       <c r="E193" s="2">
-        <v>50096</v>
+        <v>50083</v>
       </c>
       <c r="F193" s="2">
-        <v>50096</v>
+        <v>50083</v>
       </c>
       <c r="G193">
         <v>7.7777777777777779E-2</v>
@@ -6060,16 +6060,16 @@
         <v>193</v>
       </c>
       <c r="C194" s="2">
-        <v>50095</v>
+        <v>50082</v>
       </c>
       <c r="D194" s="2">
-        <v>50096</v>
+        <v>50083</v>
       </c>
       <c r="E194" s="2">
-        <v>50124</v>
+        <v>50111</v>
       </c>
       <c r="F194" s="2">
-        <v>50124</v>
+        <v>50111</v>
       </c>
       <c r="G194">
         <v>7.7777777777777779E-2</v>
@@ -6089,16 +6089,16 @@
         <v>194</v>
       </c>
       <c r="C195" s="2">
-        <v>50123</v>
+        <v>50110</v>
       </c>
       <c r="D195" s="2">
-        <v>50124</v>
+        <v>50111</v>
       </c>
       <c r="E195" s="2">
-        <v>50152</v>
+        <v>50139</v>
       </c>
       <c r="F195" s="2">
-        <v>50152</v>
+        <v>50139</v>
       </c>
       <c r="G195">
         <v>7.7777777777777779E-2</v>
@@ -6118,16 +6118,16 @@
         <v>195</v>
       </c>
       <c r="C196" s="2">
-        <v>50151</v>
+        <v>50138</v>
       </c>
       <c r="D196" s="2">
-        <v>50152</v>
+        <v>50139</v>
       </c>
       <c r="E196" s="2">
-        <v>50180</v>
+        <v>50167</v>
       </c>
       <c r="F196" s="2">
-        <v>50180</v>
+        <v>50167</v>
       </c>
       <c r="G196">
         <v>7.7777777777777779E-2</v>
@@ -6147,16 +6147,16 @@
         <v>196</v>
       </c>
       <c r="C197" s="2">
-        <v>50179</v>
+        <v>50166</v>
       </c>
       <c r="D197" s="2">
-        <v>50180</v>
+        <v>50167</v>
       </c>
       <c r="E197" s="2">
-        <v>50208</v>
+        <v>50195</v>
       </c>
       <c r="F197" s="2">
-        <v>50208</v>
+        <v>50195</v>
       </c>
       <c r="G197">
         <v>7.7777777777777779E-2</v>
@@ -6176,16 +6176,16 @@
         <v>197</v>
       </c>
       <c r="C198" s="2">
-        <v>50207</v>
+        <v>50194</v>
       </c>
       <c r="D198" s="2">
-        <v>50208</v>
+        <v>50195</v>
       </c>
       <c r="E198" s="2">
-        <v>50236</v>
+        <v>50223</v>
       </c>
       <c r="F198" s="2">
-        <v>50236</v>
+        <v>50223</v>
       </c>
       <c r="G198">
         <v>7.7777777777777779E-2</v>
@@ -6205,16 +6205,16 @@
         <v>198</v>
       </c>
       <c r="C199" s="2">
-        <v>50235</v>
+        <v>50222</v>
       </c>
       <c r="D199" s="2">
-        <v>50236</v>
+        <v>50223</v>
       </c>
       <c r="E199" s="2">
-        <v>50264</v>
+        <v>50251</v>
       </c>
       <c r="F199" s="2">
-        <v>50264</v>
+        <v>50251</v>
       </c>
       <c r="G199">
         <v>7.7777777777777779E-2</v>
@@ -6234,16 +6234,16 @@
         <v>199</v>
       </c>
       <c r="C200" s="2">
-        <v>50263</v>
+        <v>50250</v>
       </c>
       <c r="D200" s="2">
-        <v>50264</v>
+        <v>50251</v>
       </c>
       <c r="E200" s="2">
-        <v>50292</v>
+        <v>50279</v>
       </c>
       <c r="F200" s="2">
-        <v>50292</v>
+        <v>50279</v>
       </c>
       <c r="G200">
         <v>7.7777777777777779E-2</v>
@@ -6263,16 +6263,16 @@
         <v>200</v>
       </c>
       <c r="C201" s="2">
-        <v>50291</v>
+        <v>50278</v>
       </c>
       <c r="D201" s="2">
-        <v>50292</v>
+        <v>50279</v>
       </c>
       <c r="E201" s="2">
-        <v>50320</v>
+        <v>50307</v>
       </c>
       <c r="F201" s="2">
-        <v>50320</v>
+        <v>50307</v>
       </c>
       <c r="G201">
         <v>7.7777777777777779E-2</v>
@@ -6292,16 +6292,16 @@
         <v>201</v>
       </c>
       <c r="C202" s="2">
-        <v>50319</v>
+        <v>50306</v>
       </c>
       <c r="D202" s="2">
-        <v>50320</v>
+        <v>50307</v>
       </c>
       <c r="E202" s="2">
-        <v>50348</v>
+        <v>50335</v>
       </c>
       <c r="F202" s="2">
-        <v>50348</v>
+        <v>50335</v>
       </c>
       <c r="G202">
         <v>7.7777777777777779E-2</v>
@@ -6321,16 +6321,16 @@
         <v>202</v>
       </c>
       <c r="C203" s="2">
-        <v>50347</v>
+        <v>50334</v>
       </c>
       <c r="D203" s="2">
-        <v>50348</v>
+        <v>50335</v>
       </c>
       <c r="E203" s="2">
-        <v>50376</v>
+        <v>50363</v>
       </c>
       <c r="F203" s="2">
-        <v>50376</v>
+        <v>50363</v>
       </c>
       <c r="G203">
         <v>7.7777777777777779E-2</v>
@@ -6350,16 +6350,16 @@
         <v>203</v>
       </c>
       <c r="C204" s="2">
-        <v>50375</v>
+        <v>50362</v>
       </c>
       <c r="D204" s="2">
-        <v>50376</v>
+        <v>50363</v>
       </c>
       <c r="E204" s="2">
-        <v>50404</v>
+        <v>50391</v>
       </c>
       <c r="F204" s="2">
-        <v>50404</v>
+        <v>50391</v>
       </c>
       <c r="G204">
         <v>7.7777777777777779E-2</v>
@@ -6379,16 +6379,16 @@
         <v>204</v>
       </c>
       <c r="C205" s="2">
-        <v>50403</v>
+        <v>50390</v>
       </c>
       <c r="D205" s="2">
-        <v>50404</v>
+        <v>50391</v>
       </c>
       <c r="E205" s="2">
-        <v>50432</v>
+        <v>50419</v>
       </c>
       <c r="F205" s="2">
-        <v>50432</v>
+        <v>50419</v>
       </c>
       <c r="G205">
         <v>7.7777777777777779E-2</v>
@@ -6408,16 +6408,16 @@
         <v>205</v>
       </c>
       <c r="C206" s="2">
-        <v>50431</v>
+        <v>50418</v>
       </c>
       <c r="D206" s="2">
-        <v>50432</v>
+        <v>50419</v>
       </c>
       <c r="E206" s="2">
-        <v>50460</v>
+        <v>50447</v>
       </c>
       <c r="F206" s="2">
-        <v>50460</v>
+        <v>50447</v>
       </c>
       <c r="G206">
         <v>7.7777777777777779E-2</v>
@@ -6437,16 +6437,16 @@
         <v>206</v>
       </c>
       <c r="C207" s="2">
-        <v>50459</v>
+        <v>50446</v>
       </c>
       <c r="D207" s="2">
-        <v>50460</v>
+        <v>50447</v>
       </c>
       <c r="E207" s="2">
-        <v>50488</v>
+        <v>50475</v>
       </c>
       <c r="F207" s="2">
-        <v>50488</v>
+        <v>50475</v>
       </c>
       <c r="G207">
         <v>7.7777777777777779E-2</v>
@@ -6466,16 +6466,16 @@
         <v>207</v>
       </c>
       <c r="C208" s="2">
-        <v>50487</v>
+        <v>50474</v>
       </c>
       <c r="D208" s="2">
-        <v>50488</v>
+        <v>50475</v>
       </c>
       <c r="E208" s="2">
-        <v>50516</v>
+        <v>50503</v>
       </c>
       <c r="F208" s="2">
-        <v>50516</v>
+        <v>50503</v>
       </c>
       <c r="G208">
         <v>7.7777777777777779E-2</v>
@@ -6495,16 +6495,16 @@
         <v>208</v>
       </c>
       <c r="C209" s="2">
-        <v>50515</v>
+        <v>50502</v>
       </c>
       <c r="D209" s="2">
-        <v>50516</v>
+        <v>50503</v>
       </c>
       <c r="E209" s="2">
-        <v>50544</v>
+        <v>50531</v>
       </c>
       <c r="F209" s="2">
-        <v>50544</v>
+        <v>50531</v>
       </c>
       <c r="G209">
         <v>7.7777777777777779E-2</v>
@@ -6524,16 +6524,16 @@
         <v>209</v>
       </c>
       <c r="C210" s="2">
-        <v>50543</v>
+        <v>50530</v>
       </c>
       <c r="D210" s="2">
-        <v>50544</v>
+        <v>50531</v>
       </c>
       <c r="E210" s="2">
-        <v>50572</v>
+        <v>50559</v>
       </c>
       <c r="F210" s="2">
-        <v>50572</v>
+        <v>50559</v>
       </c>
       <c r="G210">
         <v>7.7777777777777779E-2</v>
@@ -6553,16 +6553,16 @@
         <v>210</v>
       </c>
       <c r="C211" s="2">
-        <v>50571</v>
+        <v>50558</v>
       </c>
       <c r="D211" s="2">
-        <v>50572</v>
+        <v>50559</v>
       </c>
       <c r="E211" s="2">
-        <v>50600</v>
+        <v>50587</v>
       </c>
       <c r="F211" s="2">
-        <v>50600</v>
+        <v>50587</v>
       </c>
       <c r="G211">
         <v>7.7777777777777779E-2</v>
@@ -6582,16 +6582,16 @@
         <v>211</v>
       </c>
       <c r="C212" s="2">
-        <v>50599</v>
+        <v>50586</v>
       </c>
       <c r="D212" s="2">
-        <v>50600</v>
+        <v>50587</v>
       </c>
       <c r="E212" s="2">
-        <v>50628</v>
+        <v>50615</v>
       </c>
       <c r="F212" s="2">
-        <v>50628</v>
+        <v>50615</v>
       </c>
       <c r="G212">
         <v>7.7777777777777779E-2</v>
@@ -6611,16 +6611,16 @@
         <v>212</v>
       </c>
       <c r="C213" s="2">
-        <v>50627</v>
+        <v>50614</v>
       </c>
       <c r="D213" s="2">
-        <v>50628</v>
+        <v>50615</v>
       </c>
       <c r="E213" s="2">
-        <v>50656</v>
+        <v>50643</v>
       </c>
       <c r="F213" s="2">
-        <v>50656</v>
+        <v>50643</v>
       </c>
       <c r="G213">
         <v>7.7777777777777779E-2</v>
@@ -6640,16 +6640,16 @@
         <v>213</v>
       </c>
       <c r="C214" s="2">
-        <v>50655</v>
+        <v>50642</v>
       </c>
       <c r="D214" s="2">
-        <v>50656</v>
+        <v>50643</v>
       </c>
       <c r="E214" s="2">
-        <v>50684</v>
+        <v>50671</v>
       </c>
       <c r="F214" s="2">
-        <v>50684</v>
+        <v>50671</v>
       </c>
       <c r="G214">
         <v>7.7777777777777779E-2</v>
@@ -6669,16 +6669,16 @@
         <v>214</v>
       </c>
       <c r="C215" s="2">
-        <v>50683</v>
+        <v>50670</v>
       </c>
       <c r="D215" s="2">
-        <v>50684</v>
+        <v>50671</v>
       </c>
       <c r="E215" s="2">
-        <v>50712</v>
+        <v>50699</v>
       </c>
       <c r="F215" s="2">
-        <v>50712</v>
+        <v>50699</v>
       </c>
       <c r="G215">
         <v>7.7777777777777779E-2</v>
@@ -6698,16 +6698,16 @@
         <v>215</v>
       </c>
       <c r="C216" s="2">
-        <v>50711</v>
+        <v>50698</v>
       </c>
       <c r="D216" s="2">
-        <v>50712</v>
+        <v>50699</v>
       </c>
       <c r="E216" s="2">
-        <v>50740</v>
+        <v>50727</v>
       </c>
       <c r="F216" s="2">
-        <v>50740</v>
+        <v>50727</v>
       </c>
       <c r="G216">
         <v>7.7777777777777779E-2</v>
@@ -6727,16 +6727,16 @@
         <v>216</v>
       </c>
       <c r="C217" s="2">
-        <v>50739</v>
+        <v>50726</v>
       </c>
       <c r="D217" s="2">
-        <v>50740</v>
+        <v>50727</v>
       </c>
       <c r="E217" s="2">
-        <v>50768</v>
+        <v>50755</v>
       </c>
       <c r="F217" s="2">
-        <v>50768</v>
+        <v>50755</v>
       </c>
       <c r="G217">
         <v>7.7777777777777779E-2</v>
@@ -6756,16 +6756,16 @@
         <v>217</v>
       </c>
       <c r="C218" s="2">
-        <v>50767</v>
+        <v>50754</v>
       </c>
       <c r="D218" s="2">
-        <v>50768</v>
+        <v>50755</v>
       </c>
       <c r="E218" s="2">
-        <v>50796</v>
+        <v>50783</v>
       </c>
       <c r="F218" s="2">
-        <v>50796</v>
+        <v>50783</v>
       </c>
       <c r="G218">
         <v>7.7777777777777779E-2</v>
@@ -6785,16 +6785,16 @@
         <v>218</v>
       </c>
       <c r="C219" s="2">
-        <v>50795</v>
+        <v>50782</v>
       </c>
       <c r="D219" s="2">
-        <v>50796</v>
+        <v>50783</v>
       </c>
       <c r="E219" s="2">
-        <v>50824</v>
+        <v>50811</v>
       </c>
       <c r="F219" s="2">
-        <v>50824</v>
+        <v>50811</v>
       </c>
       <c r="G219">
         <v>7.7777777777777779E-2</v>
@@ -6814,16 +6814,16 @@
         <v>219</v>
       </c>
       <c r="C220" s="2">
-        <v>50823</v>
+        <v>50810</v>
       </c>
       <c r="D220" s="2">
-        <v>50824</v>
+        <v>50811</v>
       </c>
       <c r="E220" s="2">
-        <v>50852</v>
+        <v>50839</v>
       </c>
       <c r="F220" s="2">
-        <v>50852</v>
+        <v>50839</v>
       </c>
       <c r="G220">
         <v>7.7777777777777779E-2</v>
@@ -6843,16 +6843,16 @@
         <v>220</v>
       </c>
       <c r="C221" s="2">
-        <v>50851</v>
+        <v>50838</v>
       </c>
       <c r="D221" s="2">
-        <v>50852</v>
+        <v>50839</v>
       </c>
       <c r="E221" s="2">
-        <v>50880</v>
+        <v>50867</v>
       </c>
       <c r="F221" s="2">
-        <v>50880</v>
+        <v>50867</v>
       </c>
       <c r="G221">
         <v>7.7777777777777779E-2</v>
@@ -6872,16 +6872,16 @@
         <v>221</v>
       </c>
       <c r="C222" s="2">
-        <v>50879</v>
+        <v>50866</v>
       </c>
       <c r="D222" s="2">
-        <v>50880</v>
+        <v>50867</v>
       </c>
       <c r="E222" s="2">
-        <v>50908</v>
+        <v>50895</v>
       </c>
       <c r="F222" s="2">
-        <v>50908</v>
+        <v>50895</v>
       </c>
       <c r="G222">
         <v>7.7777777777777779E-2</v>
@@ -6901,16 +6901,16 @@
         <v>222</v>
       </c>
       <c r="C223" s="2">
-        <v>50907</v>
+        <v>50894</v>
       </c>
       <c r="D223" s="2">
-        <v>50908</v>
+        <v>50895</v>
       </c>
       <c r="E223" s="2">
-        <v>50936</v>
+        <v>50923</v>
       </c>
       <c r="F223" s="2">
-        <v>50936</v>
+        <v>50923</v>
       </c>
       <c r="G223">
         <v>7.7777777777777779E-2</v>
@@ -6930,16 +6930,16 @@
         <v>223</v>
       </c>
       <c r="C224" s="2">
-        <v>50935</v>
+        <v>50922</v>
       </c>
       <c r="D224" s="2">
-        <v>50936</v>
+        <v>50923</v>
       </c>
       <c r="E224" s="2">
-        <v>50964</v>
+        <v>50951</v>
       </c>
       <c r="F224" s="2">
-        <v>50964</v>
+        <v>50951</v>
       </c>
       <c r="G224">
         <v>7.7777777777777779E-2</v>
@@ -6959,16 +6959,16 @@
         <v>224</v>
       </c>
       <c r="C225" s="2">
-        <v>50963</v>
+        <v>50950</v>
       </c>
       <c r="D225" s="2">
-        <v>50964</v>
+        <v>50951</v>
       </c>
       <c r="E225" s="2">
-        <v>50992</v>
+        <v>50979</v>
       </c>
       <c r="F225" s="2">
-        <v>50992</v>
+        <v>50979</v>
       </c>
       <c r="G225">
         <v>7.7777777777777779E-2</v>
@@ -6988,16 +6988,16 @@
         <v>225</v>
       </c>
       <c r="C226" s="2">
-        <v>50991</v>
+        <v>50978</v>
       </c>
       <c r="D226" s="2">
-        <v>50992</v>
+        <v>50979</v>
       </c>
       <c r="E226" s="2">
-        <v>51020</v>
+        <v>51007</v>
       </c>
       <c r="F226" s="2">
-        <v>51020</v>
+        <v>51007</v>
       </c>
       <c r="G226">
         <v>7.7777777777777779E-2</v>
@@ -7017,16 +7017,16 @@
         <v>226</v>
       </c>
       <c r="C227" s="2">
-        <v>51019</v>
+        <v>51006</v>
       </c>
       <c r="D227" s="2">
-        <v>51020</v>
+        <v>51007</v>
       </c>
       <c r="E227" s="2">
-        <v>51048</v>
+        <v>51035</v>
       </c>
       <c r="F227" s="2">
-        <v>51048</v>
+        <v>51035</v>
       </c>
       <c r="G227">
         <v>7.7777777777777779E-2</v>
@@ -7046,16 +7046,16 @@
         <v>227</v>
       </c>
       <c r="C228" s="2">
-        <v>51047</v>
+        <v>51034</v>
       </c>
       <c r="D228" s="2">
-        <v>51048</v>
+        <v>51035</v>
       </c>
       <c r="E228" s="2">
-        <v>51076</v>
+        <v>51063</v>
       </c>
       <c r="F228" s="2">
-        <v>51076</v>
+        <v>51063</v>
       </c>
       <c r="G228">
         <v>7.7777777777777779E-2</v>
@@ -7075,16 +7075,16 @@
         <v>228</v>
       </c>
       <c r="C229" s="2">
-        <v>51075</v>
+        <v>51062</v>
       </c>
       <c r="D229" s="2">
-        <v>51076</v>
+        <v>51063</v>
       </c>
       <c r="E229" s="2">
-        <v>51104</v>
+        <v>51091</v>
       </c>
       <c r="F229" s="2">
-        <v>51104</v>
+        <v>51091</v>
       </c>
       <c r="G229">
         <v>7.7777777777777779E-2</v>
@@ -7104,16 +7104,16 @@
         <v>229</v>
       </c>
       <c r="C230" s="2">
-        <v>51103</v>
+        <v>51090</v>
       </c>
       <c r="D230" s="2">
-        <v>51104</v>
+        <v>51091</v>
       </c>
       <c r="E230" s="2">
-        <v>51132</v>
+        <v>51119</v>
       </c>
       <c r="F230" s="2">
-        <v>51132</v>
+        <v>51119</v>
       </c>
       <c r="G230">
         <v>7.7777777777777779E-2</v>
@@ -7133,16 +7133,16 @@
         <v>230</v>
       </c>
       <c r="C231" s="2">
-        <v>51131</v>
+        <v>51118</v>
       </c>
       <c r="D231" s="2">
-        <v>51132</v>
+        <v>51119</v>
       </c>
       <c r="E231" s="2">
-        <v>51160</v>
+        <v>51147</v>
       </c>
       <c r="F231" s="2">
-        <v>51160</v>
+        <v>51147</v>
       </c>
       <c r="G231">
         <v>7.7777777777777779E-2</v>
@@ -7162,16 +7162,16 @@
         <v>231</v>
       </c>
       <c r="C232" s="2">
-        <v>51159</v>
+        <v>51146</v>
       </c>
       <c r="D232" s="2">
-        <v>51160</v>
+        <v>51147</v>
       </c>
       <c r="E232" s="2">
-        <v>51188</v>
+        <v>51175</v>
       </c>
       <c r="F232" s="2">
-        <v>51188</v>
+        <v>51175</v>
       </c>
       <c r="G232">
         <v>7.7777777777777779E-2</v>
@@ -7191,16 +7191,16 @@
         <v>232</v>
       </c>
       <c r="C233" s="2">
-        <v>51187</v>
+        <v>51174</v>
       </c>
       <c r="D233" s="2">
-        <v>51188</v>
+        <v>51175</v>
       </c>
       <c r="E233" s="2">
-        <v>51216</v>
+        <v>51203</v>
       </c>
       <c r="F233" s="2">
-        <v>51216</v>
+        <v>51203</v>
       </c>
       <c r="G233">
         <v>7.7777777777777779E-2</v>
@@ -7220,16 +7220,16 @@
         <v>233</v>
       </c>
       <c r="C234" s="2">
-        <v>51215</v>
+        <v>51202</v>
       </c>
       <c r="D234" s="2">
-        <v>51216</v>
+        <v>51203</v>
       </c>
       <c r="E234" s="2">
-        <v>51244</v>
+        <v>51231</v>
       </c>
       <c r="F234" s="2">
-        <v>51244</v>
+        <v>51231</v>
       </c>
       <c r="G234">
         <v>7.7777777777777779E-2</v>
@@ -7249,16 +7249,16 @@
         <v>234</v>
       </c>
       <c r="C235" s="2">
-        <v>51243</v>
+        <v>51230</v>
       </c>
       <c r="D235" s="2">
-        <v>51244</v>
+        <v>51231</v>
       </c>
       <c r="E235" s="2">
-        <v>51272</v>
+        <v>51259</v>
       </c>
       <c r="F235" s="2">
-        <v>51272</v>
+        <v>51259</v>
       </c>
       <c r="G235">
         <v>7.7777777777777779E-2</v>
@@ -7278,16 +7278,16 @@
         <v>235</v>
       </c>
       <c r="C236" s="2">
-        <v>51271</v>
+        <v>51258</v>
       </c>
       <c r="D236" s="2">
-        <v>51272</v>
+        <v>51259</v>
       </c>
       <c r="E236" s="2">
-        <v>51300</v>
+        <v>51287</v>
       </c>
       <c r="F236" s="2">
-        <v>51300</v>
+        <v>51287</v>
       </c>
       <c r="G236">
         <v>7.7777777777777779E-2</v>
@@ -7307,16 +7307,16 @@
         <v>236</v>
       </c>
       <c r="C237" s="2">
-        <v>51299</v>
+        <v>51286</v>
       </c>
       <c r="D237" s="2">
-        <v>51300</v>
+        <v>51287</v>
       </c>
       <c r="E237" s="2">
-        <v>51328</v>
+        <v>51315</v>
       </c>
       <c r="F237" s="2">
-        <v>51328</v>
+        <v>51315</v>
       </c>
       <c r="G237">
         <v>7.7777777777777779E-2</v>
@@ -7336,16 +7336,16 @@
         <v>237</v>
       </c>
       <c r="C238" s="2">
-        <v>51327</v>
+        <v>51314</v>
       </c>
       <c r="D238" s="2">
-        <v>51328</v>
+        <v>51315</v>
       </c>
       <c r="E238" s="2">
-        <v>51356</v>
+        <v>51343</v>
       </c>
       <c r="F238" s="2">
-        <v>51356</v>
+        <v>51343</v>
       </c>
       <c r="G238">
         <v>7.7777777777777779E-2</v>
@@ -7365,16 +7365,16 @@
         <v>238</v>
       </c>
       <c r="C239" s="2">
-        <v>51355</v>
+        <v>51342</v>
       </c>
       <c r="D239" s="2">
-        <v>51356</v>
+        <v>51343</v>
       </c>
       <c r="E239" s="2">
-        <v>51384</v>
+        <v>51371</v>
       </c>
       <c r="F239" s="2">
-        <v>51384</v>
+        <v>51371</v>
       </c>
       <c r="G239">
         <v>7.7777777777777779E-2</v>
@@ -7394,16 +7394,16 @@
         <v>239</v>
       </c>
       <c r="C240" s="2">
-        <v>51383</v>
+        <v>51370</v>
       </c>
       <c r="D240" s="2">
-        <v>51384</v>
+        <v>51371</v>
       </c>
       <c r="E240" s="2">
-        <v>51412</v>
+        <v>51399</v>
       </c>
       <c r="F240" s="2">
-        <v>51412</v>
+        <v>51399</v>
       </c>
       <c r="G240">
         <v>7.7777777777777779E-2</v>
@@ -7423,16 +7423,16 @@
         <v>240</v>
       </c>
       <c r="C241" s="2">
-        <v>51411</v>
+        <v>51398</v>
       </c>
       <c r="D241" s="2">
-        <v>51412</v>
+        <v>51399</v>
       </c>
       <c r="E241" s="2">
-        <v>51440</v>
+        <v>51427</v>
       </c>
       <c r="F241" s="2">
-        <v>51440</v>
+        <v>51427</v>
       </c>
       <c r="G241">
         <v>7.7777777777777779E-2</v>
@@ -7452,16 +7452,16 @@
         <v>241</v>
       </c>
       <c r="C242" s="2">
-        <v>51439</v>
+        <v>51426</v>
       </c>
       <c r="D242" s="2">
-        <v>51440</v>
+        <v>51427</v>
       </c>
       <c r="E242" s="2">
-        <v>51468</v>
+        <v>51455</v>
       </c>
       <c r="F242" s="2">
-        <v>51468</v>
+        <v>51455</v>
       </c>
       <c r="G242">
         <v>7.7777777777777779E-2</v>
@@ -7481,16 +7481,16 @@
         <v>242</v>
       </c>
       <c r="C243" s="2">
-        <v>51467</v>
+        <v>51454</v>
       </c>
       <c r="D243" s="2">
-        <v>51468</v>
+        <v>51455</v>
       </c>
       <c r="E243" s="2">
-        <v>51496</v>
+        <v>51483</v>
       </c>
       <c r="F243" s="2">
-        <v>51496</v>
+        <v>51483</v>
       </c>
       <c r="G243">
         <v>7.7777777777777779E-2</v>
@@ -7510,16 +7510,16 @@
         <v>243</v>
       </c>
       <c r="C244" s="2">
-        <v>51495</v>
+        <v>51482</v>
       </c>
       <c r="D244" s="2">
-        <v>51496</v>
+        <v>51483</v>
       </c>
       <c r="E244" s="2">
-        <v>51524</v>
+        <v>51511</v>
       </c>
       <c r="F244" s="2">
-        <v>51524</v>
+        <v>51511</v>
       </c>
       <c r="G244">
         <v>7.7777777777777779E-2</v>
@@ -7539,16 +7539,16 @@
         <v>244</v>
       </c>
       <c r="C245" s="2">
-        <v>51523</v>
+        <v>51510</v>
       </c>
       <c r="D245" s="2">
-        <v>51524</v>
+        <v>51511</v>
       </c>
       <c r="E245" s="2">
-        <v>51552</v>
+        <v>51539</v>
       </c>
       <c r="F245" s="2">
-        <v>51552</v>
+        <v>51539</v>
       </c>
       <c r="G245">
         <v>7.7777777777777779E-2</v>
@@ -7568,16 +7568,16 @@
         <v>245</v>
       </c>
       <c r="C246" s="2">
-        <v>51551</v>
+        <v>51538</v>
       </c>
       <c r="D246" s="2">
-        <v>51552</v>
+        <v>51539</v>
       </c>
       <c r="E246" s="2">
-        <v>51580</v>
+        <v>51567</v>
       </c>
       <c r="F246" s="2">
-        <v>51580</v>
+        <v>51567</v>
       </c>
       <c r="G246">
         <v>7.7777777777777779E-2</v>
@@ -7597,16 +7597,16 @@
         <v>246</v>
       </c>
       <c r="C247" s="2">
-        <v>51579</v>
+        <v>51566</v>
       </c>
       <c r="D247" s="2">
-        <v>51580</v>
+        <v>51567</v>
       </c>
       <c r="E247" s="2">
-        <v>51608</v>
+        <v>51595</v>
       </c>
       <c r="F247" s="2">
-        <v>51608</v>
+        <v>51595</v>
       </c>
       <c r="G247">
         <v>7.7777777777777779E-2</v>
@@ -7626,16 +7626,16 @@
         <v>247</v>
       </c>
       <c r="C248" s="2">
-        <v>51607</v>
+        <v>51594</v>
       </c>
       <c r="D248" s="2">
-        <v>51608</v>
+        <v>51595</v>
       </c>
       <c r="E248" s="2">
-        <v>51636</v>
+        <v>51623</v>
       </c>
       <c r="F248" s="2">
-        <v>51636</v>
+        <v>51623</v>
       </c>
       <c r="G248">
         <v>7.7777777777777779E-2</v>
@@ -7655,16 +7655,16 @@
         <v>248</v>
       </c>
       <c r="C249" s="2">
-        <v>51635</v>
+        <v>51622</v>
       </c>
       <c r="D249" s="2">
-        <v>51636</v>
+        <v>51623</v>
       </c>
       <c r="E249" s="2">
-        <v>51664</v>
+        <v>51651</v>
       </c>
       <c r="F249" s="2">
-        <v>51664</v>
+        <v>51651</v>
       </c>
       <c r="G249">
         <v>7.7777777777777779E-2</v>
@@ -7684,16 +7684,16 @@
         <v>249</v>
       </c>
       <c r="C250" s="2">
-        <v>51663</v>
+        <v>51650</v>
       </c>
       <c r="D250" s="2">
-        <v>51664</v>
+        <v>51651</v>
       </c>
       <c r="E250" s="2">
-        <v>51692</v>
+        <v>51679</v>
       </c>
       <c r="F250" s="2">
-        <v>51692</v>
+        <v>51679</v>
       </c>
       <c r="G250">
         <v>7.7777777777777779E-2</v>
@@ -7713,16 +7713,16 @@
         <v>250</v>
       </c>
       <c r="C251" s="2">
-        <v>51691</v>
+        <v>51678</v>
       </c>
       <c r="D251" s="2">
-        <v>51692</v>
+        <v>51679</v>
       </c>
       <c r="E251" s="2">
-        <v>51720</v>
+        <v>51707</v>
       </c>
       <c r="F251" s="2">
-        <v>51720</v>
+        <v>51707</v>
       </c>
       <c r="G251">
         <v>7.7777777777777779E-2</v>
@@ -7742,16 +7742,16 @@
         <v>251</v>
       </c>
       <c r="C252" s="2">
-        <v>51719</v>
+        <v>51706</v>
       </c>
       <c r="D252" s="2">
-        <v>51720</v>
+        <v>51707</v>
       </c>
       <c r="E252" s="2">
-        <v>51748</v>
+        <v>51735</v>
       </c>
       <c r="F252" s="2">
-        <v>51748</v>
+        <v>51735</v>
       </c>
       <c r="G252">
         <v>7.7777777777777779E-2</v>
@@ -7771,16 +7771,16 @@
         <v>252</v>
       </c>
       <c r="C253" s="2">
-        <v>51747</v>
+        <v>51734</v>
       </c>
       <c r="D253" s="2">
-        <v>51748</v>
+        <v>51735</v>
       </c>
       <c r="E253" s="2">
-        <v>51776</v>
+        <v>51763</v>
       </c>
       <c r="F253" s="2">
-        <v>51776</v>
+        <v>51763</v>
       </c>
       <c r="G253">
         <v>7.7777777777777779E-2</v>
@@ -7800,16 +7800,16 @@
         <v>253</v>
       </c>
       <c r="C254" s="2">
-        <v>51775</v>
+        <v>51762</v>
       </c>
       <c r="D254" s="2">
-        <v>51776</v>
+        <v>51763</v>
       </c>
       <c r="E254" s="2">
-        <v>51804</v>
+        <v>51791</v>
       </c>
       <c r="F254" s="2">
-        <v>51804</v>
+        <v>51791</v>
       </c>
       <c r="G254">
         <v>7.7777777777777779E-2</v>
@@ -7829,16 +7829,16 @@
         <v>254</v>
       </c>
       <c r="C255" s="2">
-        <v>51803</v>
+        <v>51790</v>
       </c>
       <c r="D255" s="2">
-        <v>51804</v>
+        <v>51791</v>
       </c>
       <c r="E255" s="2">
-        <v>51832</v>
+        <v>51819</v>
       </c>
       <c r="F255" s="2">
-        <v>51832</v>
+        <v>51819</v>
       </c>
       <c r="G255">
         <v>7.7777777777777779E-2</v>
@@ -7858,16 +7858,16 @@
         <v>255</v>
       </c>
       <c r="C256" s="2">
-        <v>51831</v>
+        <v>51818</v>
       </c>
       <c r="D256" s="2">
-        <v>51832</v>
+        <v>51819</v>
       </c>
       <c r="E256" s="2">
-        <v>51860</v>
+        <v>51847</v>
       </c>
       <c r="F256" s="2">
-        <v>51860</v>
+        <v>51847</v>
       </c>
       <c r="G256">
         <v>7.7777777777777779E-2</v>
@@ -7887,16 +7887,16 @@
         <v>256</v>
       </c>
       <c r="C257" s="2">
-        <v>51859</v>
+        <v>51846</v>
       </c>
       <c r="D257" s="2">
-        <v>51860</v>
+        <v>51847</v>
       </c>
       <c r="E257" s="2">
-        <v>51888</v>
+        <v>51875</v>
       </c>
       <c r="F257" s="2">
-        <v>51888</v>
+        <v>51875</v>
       </c>
       <c r="G257">
         <v>7.7777777777777779E-2</v>
@@ -7916,16 +7916,16 @@
         <v>257</v>
       </c>
       <c r="C258" s="2">
-        <v>51887</v>
+        <v>51874</v>
       </c>
       <c r="D258" s="2">
-        <v>51888</v>
+        <v>51875</v>
       </c>
       <c r="E258" s="2">
-        <v>51916</v>
+        <v>51903</v>
       </c>
       <c r="F258" s="2">
-        <v>51916</v>
+        <v>51903</v>
       </c>
       <c r="G258">
         <v>7.7777777777777779E-2</v>
@@ -7945,16 +7945,16 @@
         <v>258</v>
       </c>
       <c r="C259" s="2">
-        <v>51915</v>
+        <v>51902</v>
       </c>
       <c r="D259" s="2">
-        <v>51916</v>
+        <v>51903</v>
       </c>
       <c r="E259" s="2">
-        <v>51944</v>
+        <v>51931</v>
       </c>
       <c r="F259" s="2">
-        <v>51944</v>
+        <v>51931</v>
       </c>
       <c r="G259">
         <v>7.7777777777777779E-2</v>
@@ -7974,16 +7974,16 @@
         <v>259</v>
       </c>
       <c r="C260" s="2">
-        <v>51943</v>
+        <v>51930</v>
       </c>
       <c r="D260" s="2">
-        <v>51944</v>
+        <v>51931</v>
       </c>
       <c r="E260" s="2">
-        <v>51972</v>
+        <v>51959</v>
       </c>
       <c r="F260" s="2">
-        <v>51972</v>
+        <v>51959</v>
       </c>
       <c r="G260">
         <v>7.7777777777777779E-2</v>
@@ -8003,16 +8003,16 @@
         <v>260</v>
       </c>
       <c r="C261" s="2">
-        <v>51971</v>
+        <v>51958</v>
       </c>
       <c r="D261" s="2">
-        <v>51972</v>
+        <v>51959</v>
       </c>
       <c r="E261" s="2">
-        <v>52000</v>
+        <v>51987</v>
       </c>
       <c r="F261" s="2">
-        <v>52000</v>
+        <v>51987</v>
       </c>
       <c r="G261">
         <v>7.7777777777777779E-2</v>
@@ -8032,16 +8032,16 @@
         <v>261</v>
       </c>
       <c r="C262" s="2">
-        <v>51999</v>
+        <v>51986</v>
       </c>
       <c r="D262" s="2">
-        <v>52000</v>
+        <v>51987</v>
       </c>
       <c r="E262" s="2">
-        <v>52028</v>
+        <v>52015</v>
       </c>
       <c r="F262" s="2">
-        <v>52028</v>
+        <v>52015</v>
       </c>
       <c r="G262">
         <v>7.7777777777777779E-2</v>
@@ -8061,16 +8061,16 @@
         <v>262</v>
       </c>
       <c r="C263" s="2">
-        <v>52027</v>
+        <v>52014</v>
       </c>
       <c r="D263" s="2">
-        <v>52028</v>
+        <v>52015</v>
       </c>
       <c r="E263" s="2">
-        <v>52056</v>
+        <v>52043</v>
       </c>
       <c r="F263" s="2">
-        <v>52056</v>
+        <v>52043</v>
       </c>
       <c r="G263">
         <v>7.7777777777777779E-2</v>
@@ -8090,16 +8090,16 @@
         <v>263</v>
       </c>
       <c r="C264" s="2">
-        <v>52055</v>
+        <v>52042</v>
       </c>
       <c r="D264" s="2">
-        <v>52056</v>
+        <v>52043</v>
       </c>
       <c r="E264" s="2">
-        <v>52084</v>
+        <v>52071</v>
       </c>
       <c r="F264" s="2">
-        <v>52084</v>
+        <v>52071</v>
       </c>
       <c r="G264">
         <v>7.7777777777777779E-2</v>
@@ -8119,16 +8119,16 @@
         <v>264</v>
       </c>
       <c r="C265" s="2">
-        <v>52083</v>
+        <v>52070</v>
       </c>
       <c r="D265" s="2">
-        <v>52084</v>
+        <v>52071</v>
       </c>
       <c r="E265" s="2">
-        <v>52112</v>
+        <v>52099</v>
       </c>
       <c r="F265" s="2">
-        <v>52112</v>
+        <v>52099</v>
       </c>
       <c r="G265">
         <v>7.7777777777777779E-2</v>
@@ -8148,16 +8148,16 @@
         <v>265</v>
       </c>
       <c r="C266" s="2">
-        <v>52111</v>
+        <v>52098</v>
       </c>
       <c r="D266" s="2">
-        <v>52112</v>
+        <v>52099</v>
       </c>
       <c r="E266" s="2">
-        <v>52140</v>
+        <v>52127</v>
       </c>
       <c r="F266" s="2">
-        <v>52140</v>
+        <v>52127</v>
       </c>
       <c r="G266">
         <v>7.7777777777777779E-2</v>
@@ -8177,16 +8177,16 @@
         <v>266</v>
       </c>
       <c r="C267" s="2">
-        <v>52139</v>
+        <v>52126</v>
       </c>
       <c r="D267" s="2">
-        <v>52140</v>
+        <v>52127</v>
       </c>
       <c r="E267" s="2">
-        <v>52168</v>
+        <v>52155</v>
       </c>
       <c r="F267" s="2">
-        <v>52168</v>
+        <v>52155</v>
       </c>
       <c r="G267">
         <v>7.7777777777777779E-2</v>
@@ -8206,16 +8206,16 @@
         <v>267</v>
       </c>
       <c r="C268" s="2">
-        <v>52167</v>
+        <v>52154</v>
       </c>
       <c r="D268" s="2">
-        <v>52168</v>
+        <v>52155</v>
       </c>
       <c r="E268" s="2">
-        <v>52196</v>
+        <v>52183</v>
       </c>
       <c r="F268" s="2">
-        <v>52196</v>
+        <v>52183</v>
       </c>
       <c r="G268">
         <v>7.7777777777777779E-2</v>
@@ -8235,16 +8235,16 @@
         <v>268</v>
       </c>
       <c r="C269" s="2">
-        <v>52195</v>
+        <v>52182</v>
       </c>
       <c r="D269" s="2">
-        <v>52196</v>
+        <v>52183</v>
       </c>
       <c r="E269" s="2">
-        <v>52224</v>
+        <v>52211</v>
       </c>
       <c r="F269" s="2">
-        <v>52224</v>
+        <v>52211</v>
       </c>
       <c r="G269">
         <v>7.7777777777777779E-2</v>
@@ -8264,16 +8264,16 @@
         <v>269</v>
       </c>
       <c r="C270" s="2">
-        <v>52223</v>
+        <v>52210</v>
       </c>
       <c r="D270" s="2">
-        <v>52224</v>
+        <v>52211</v>
       </c>
       <c r="E270" s="2">
-        <v>52252</v>
+        <v>52239</v>
       </c>
       <c r="F270" s="2">
-        <v>52252</v>
+        <v>52239</v>
       </c>
       <c r="G270">
         <v>7.7777777777777779E-2</v>
@@ -8293,16 +8293,16 @@
         <v>270</v>
       </c>
       <c r="C271" s="2">
-        <v>52251</v>
+        <v>52238</v>
       </c>
       <c r="D271" s="2">
-        <v>52252</v>
+        <v>52239</v>
       </c>
       <c r="E271" s="2">
-        <v>52280</v>
+        <v>52267</v>
       </c>
       <c r="F271" s="2">
-        <v>52280</v>
+        <v>52267</v>
       </c>
       <c r="G271">
         <v>7.7777777777777779E-2</v>
@@ -8322,16 +8322,16 @@
         <v>271</v>
       </c>
       <c r="C272" s="2">
-        <v>52279</v>
+        <v>52266</v>
       </c>
       <c r="D272" s="2">
-        <v>52280</v>
+        <v>52267</v>
       </c>
       <c r="E272" s="2">
-        <v>52308</v>
+        <v>52295</v>
       </c>
       <c r="F272" s="2">
-        <v>52308</v>
+        <v>52295</v>
       </c>
       <c r="G272">
         <v>7.7777777777777779E-2</v>
@@ -8351,16 +8351,16 @@
         <v>272</v>
       </c>
       <c r="C273" s="2">
-        <v>52307</v>
+        <v>52294</v>
       </c>
       <c r="D273" s="2">
-        <v>52308</v>
+        <v>52295</v>
       </c>
       <c r="E273" s="2">
-        <v>52336</v>
+        <v>52323</v>
       </c>
       <c r="F273" s="2">
-        <v>52336</v>
+        <v>52323</v>
       </c>
       <c r="G273">
         <v>7.7777777777777779E-2</v>
@@ -8380,16 +8380,16 @@
         <v>273</v>
       </c>
       <c r="C274" s="2">
-        <v>52335</v>
+        <v>52322</v>
       </c>
       <c r="D274" s="2">
-        <v>52336</v>
+        <v>52323</v>
       </c>
       <c r="E274" s="2">
-        <v>52364</v>
+        <v>52351</v>
       </c>
       <c r="F274" s="2">
-        <v>52364</v>
+        <v>52351</v>
       </c>
       <c r="G274">
         <v>7.7777777777777779E-2</v>
@@ -8409,16 +8409,16 @@
         <v>274</v>
       </c>
       <c r="C275" s="2">
-        <v>52363</v>
+        <v>52350</v>
       </c>
       <c r="D275" s="2">
-        <v>52364</v>
+        <v>52351</v>
       </c>
       <c r="E275" s="2">
-        <v>52392</v>
+        <v>52379</v>
       </c>
       <c r="F275" s="2">
-        <v>52392</v>
+        <v>52379</v>
       </c>
       <c r="G275">
         <v>7.7777777777777779E-2</v>
@@ -8438,16 +8438,16 @@
         <v>275</v>
       </c>
       <c r="C276" s="2">
-        <v>52391</v>
+        <v>52378</v>
       </c>
       <c r="D276" s="2">
-        <v>52392</v>
+        <v>52379</v>
       </c>
       <c r="E276" s="2">
-        <v>52420</v>
+        <v>52407</v>
       </c>
       <c r="F276" s="2">
-        <v>52420</v>
+        <v>52407</v>
       </c>
       <c r="G276">
         <v>7.7777777777777779E-2</v>
@@ -8467,16 +8467,16 @@
         <v>276</v>
       </c>
       <c r="C277" s="2">
-        <v>52419</v>
+        <v>52406</v>
       </c>
       <c r="D277" s="2">
-        <v>52420</v>
+        <v>52407</v>
       </c>
       <c r="E277" s="2">
-        <v>52448</v>
+        <v>52435</v>
       </c>
       <c r="F277" s="2">
-        <v>52448</v>
+        <v>52435</v>
       </c>
       <c r="G277">
         <v>7.7777777777777779E-2</v>
@@ -8496,16 +8496,16 @@
         <v>277</v>
       </c>
       <c r="C278" s="2">
-        <v>52447</v>
+        <v>52434</v>
       </c>
       <c r="D278" s="2">
-        <v>52448</v>
+        <v>52435</v>
       </c>
       <c r="E278" s="2">
-        <v>52476</v>
+        <v>52463</v>
       </c>
       <c r="F278" s="2">
-        <v>52476</v>
+        <v>52463</v>
       </c>
       <c r="G278">
         <v>7.7777777777777779E-2</v>
@@ -8525,16 +8525,16 @@
         <v>278</v>
       </c>
       <c r="C279" s="2">
-        <v>52475</v>
+        <v>52462</v>
       </c>
       <c r="D279" s="2">
-        <v>52476</v>
+        <v>52463</v>
       </c>
       <c r="E279" s="2">
-        <v>52504</v>
+        <v>52491</v>
       </c>
       <c r="F279" s="2">
-        <v>52504</v>
+        <v>52491</v>
       </c>
       <c r="G279">
         <v>7.7777777777777779E-2</v>
@@ -8554,16 +8554,16 @@
         <v>279</v>
       </c>
       <c r="C280" s="2">
-        <v>52503</v>
+        <v>52490</v>
       </c>
       <c r="D280" s="2">
-        <v>52504</v>
+        <v>52491</v>
       </c>
       <c r="E280" s="2">
-        <v>52532</v>
+        <v>52519</v>
       </c>
       <c r="F280" s="2">
-        <v>52532</v>
+        <v>52519</v>
       </c>
       <c r="G280">
         <v>7.7777777777777779E-2</v>
@@ -8583,16 +8583,16 @@
         <v>280</v>
       </c>
       <c r="C281" s="2">
-        <v>52531</v>
+        <v>52518</v>
       </c>
       <c r="D281" s="2">
-        <v>52532</v>
+        <v>52519</v>
       </c>
       <c r="E281" s="2">
-        <v>52560</v>
+        <v>52547</v>
       </c>
       <c r="F281" s="2">
-        <v>52560</v>
+        <v>52547</v>
       </c>
       <c r="G281">
         <v>7.7777777777777779E-2</v>
@@ -8612,16 +8612,16 @@
         <v>281</v>
       </c>
       <c r="C282" s="2">
-        <v>52559</v>
+        <v>52546</v>
       </c>
       <c r="D282" s="2">
-        <v>52560</v>
+        <v>52547</v>
       </c>
       <c r="E282" s="2">
-        <v>52588</v>
+        <v>52575</v>
       </c>
       <c r="F282" s="2">
-        <v>52588</v>
+        <v>52575</v>
       </c>
       <c r="G282">
         <v>7.7777777777777779E-2</v>
@@ -8641,16 +8641,16 @@
         <v>282</v>
       </c>
       <c r="C283" s="2">
-        <v>52587</v>
+        <v>52574</v>
       </c>
       <c r="D283" s="2">
-        <v>52588</v>
+        <v>52575</v>
       </c>
       <c r="E283" s="2">
-        <v>52616</v>
+        <v>52603</v>
       </c>
       <c r="F283" s="2">
-        <v>52616</v>
+        <v>52603</v>
       </c>
       <c r="G283">
         <v>7.7777777777777779E-2</v>
@@ -8670,16 +8670,16 @@
         <v>283</v>
       </c>
       <c r="C284" s="2">
-        <v>52615</v>
+        <v>52602</v>
       </c>
       <c r="D284" s="2">
-        <v>52616</v>
+        <v>52603</v>
       </c>
       <c r="E284" s="2">
-        <v>52644</v>
+        <v>52631</v>
       </c>
       <c r="F284" s="2">
-        <v>52644</v>
+        <v>52631</v>
       </c>
       <c r="G284">
         <v>7.7777777777777779E-2</v>
@@ -8699,16 +8699,16 @@
         <v>284</v>
       </c>
       <c r="C285" s="2">
-        <v>52643</v>
+        <v>52630</v>
       </c>
       <c r="D285" s="2">
-        <v>52644</v>
+        <v>52631</v>
       </c>
       <c r="E285" s="2">
-        <v>52672</v>
+        <v>52659</v>
       </c>
       <c r="F285" s="2">
-        <v>52672</v>
+        <v>52659</v>
       </c>
       <c r="G285">
         <v>7.7777777777777779E-2</v>
@@ -8728,16 +8728,16 @@
         <v>285</v>
       </c>
       <c r="C286" s="2">
-        <v>52671</v>
+        <v>52658</v>
       </c>
       <c r="D286" s="2">
-        <v>52672</v>
+        <v>52659</v>
       </c>
       <c r="E286" s="2">
-        <v>52700</v>
+        <v>52687</v>
       </c>
       <c r="F286" s="2">
-        <v>52700</v>
+        <v>52687</v>
       </c>
       <c r="G286">
         <v>7.7777777777777779E-2</v>
@@ -8757,16 +8757,16 @@
         <v>286</v>
       </c>
       <c r="C287" s="2">
-        <v>52699</v>
+        <v>52686</v>
       </c>
       <c r="D287" s="2">
-        <v>52700</v>
+        <v>52687</v>
       </c>
       <c r="E287" s="2">
-        <v>52728</v>
+        <v>52715</v>
       </c>
       <c r="F287" s="2">
-        <v>52728</v>
+        <v>52715</v>
       </c>
       <c r="G287">
         <v>7.7777777777777779E-2</v>
@@ -8786,16 +8786,16 @@
         <v>287</v>
       </c>
       <c r="C288" s="2">
-        <v>52727</v>
+        <v>52714</v>
       </c>
       <c r="D288" s="2">
-        <v>52728</v>
+        <v>52715</v>
       </c>
       <c r="E288" s="2">
-        <v>52756</v>
+        <v>52743</v>
       </c>
       <c r="F288" s="2">
-        <v>52756</v>
+        <v>52743</v>
       </c>
       <c r="G288">
         <v>7.7777777777777779E-2</v>
@@ -8815,16 +8815,16 @@
         <v>288</v>
       </c>
       <c r="C289" s="2">
-        <v>52755</v>
+        <v>52742</v>
       </c>
       <c r="D289" s="2">
-        <v>52756</v>
+        <v>52743</v>
       </c>
       <c r="E289" s="2">
-        <v>52784</v>
+        <v>52771</v>
       </c>
       <c r="F289" s="2">
-        <v>52784</v>
+        <v>52771</v>
       </c>
       <c r="G289">
         <v>7.7777777777777779E-2</v>
@@ -8844,16 +8844,16 @@
         <v>289</v>
       </c>
       <c r="C290" s="2">
-        <v>52783</v>
+        <v>52770</v>
       </c>
       <c r="D290" s="2">
-        <v>52784</v>
+        <v>52771</v>
       </c>
       <c r="E290" s="2">
-        <v>52812</v>
+        <v>52799</v>
       </c>
       <c r="F290" s="2">
-        <v>52812</v>
+        <v>52799</v>
       </c>
       <c r="G290">
         <v>7.7777777777777779E-2</v>
@@ -8873,16 +8873,16 @@
         <v>290</v>
       </c>
       <c r="C291" s="2">
-        <v>52811</v>
+        <v>52798</v>
       </c>
       <c r="D291" s="2">
-        <v>52812</v>
+        <v>52799</v>
       </c>
       <c r="E291" s="2">
-        <v>52840</v>
+        <v>52827</v>
       </c>
       <c r="F291" s="2">
-        <v>52840</v>
+        <v>52827</v>
       </c>
       <c r="G291">
         <v>7.7777777777777779E-2</v>
@@ -8902,16 +8902,16 @@
         <v>291</v>
       </c>
       <c r="C292" s="2">
-        <v>52839</v>
+        <v>52826</v>
       </c>
       <c r="D292" s="2">
-        <v>52840</v>
+        <v>52827</v>
       </c>
       <c r="E292" s="2">
-        <v>52868</v>
+        <v>52855</v>
       </c>
       <c r="F292" s="2">
-        <v>52868</v>
+        <v>52855</v>
       </c>
       <c r="G292">
         <v>7.7777777777777779E-2</v>
@@ -8931,16 +8931,16 @@
         <v>292</v>
       </c>
       <c r="C293" s="2">
-        <v>52867</v>
+        <v>52854</v>
       </c>
       <c r="D293" s="2">
-        <v>52868</v>
+        <v>52855</v>
       </c>
       <c r="E293" s="2">
-        <v>52896</v>
+        <v>52883</v>
       </c>
       <c r="F293" s="2">
-        <v>52896</v>
+        <v>52883</v>
       </c>
       <c r="G293">
         <v>7.7777777777777779E-2</v>
@@ -8960,16 +8960,16 @@
         <v>293</v>
       </c>
       <c r="C294" s="2">
-        <v>52895</v>
+        <v>52882</v>
       </c>
       <c r="D294" s="2">
-        <v>52896</v>
+        <v>52883</v>
       </c>
       <c r="E294" s="2">
-        <v>52924</v>
+        <v>52911</v>
       </c>
       <c r="F294" s="2">
-        <v>52924</v>
+        <v>52911</v>
       </c>
       <c r="G294">
         <v>7.7777777777777779E-2</v>
@@ -8989,16 +8989,16 @@
         <v>294</v>
       </c>
       <c r="C295" s="2">
-        <v>52923</v>
+        <v>52910</v>
       </c>
       <c r="D295" s="2">
-        <v>52924</v>
+        <v>52911</v>
       </c>
       <c r="E295" s="2">
-        <v>52952</v>
+        <v>52939</v>
       </c>
       <c r="F295" s="2">
-        <v>52952</v>
+        <v>52939</v>
       </c>
       <c r="G295">
         <v>7.7777777777777779E-2</v>
@@ -9018,16 +9018,16 @@
         <v>295</v>
       </c>
       <c r="C296" s="2">
-        <v>52951</v>
+        <v>52938</v>
       </c>
       <c r="D296" s="2">
-        <v>52952</v>
+        <v>52939</v>
       </c>
       <c r="E296" s="2">
-        <v>52980</v>
+        <v>52967</v>
       </c>
       <c r="F296" s="2">
-        <v>52980</v>
+        <v>52967</v>
       </c>
       <c r="G296">
         <v>7.7777777777777779E-2</v>
@@ -9047,16 +9047,16 @@
         <v>296</v>
       </c>
       <c r="C297" s="2">
-        <v>52979</v>
+        <v>52966</v>
       </c>
       <c r="D297" s="2">
-        <v>52980</v>
+        <v>52967</v>
       </c>
       <c r="E297" s="2">
-        <v>53008</v>
+        <v>52995</v>
       </c>
       <c r="F297" s="2">
-        <v>53008</v>
+        <v>52995</v>
       </c>
       <c r="G297">
         <v>7.7777777777777779E-2</v>
@@ -9076,16 +9076,16 @@
         <v>297</v>
       </c>
       <c r="C298" s="2">
-        <v>53007</v>
+        <v>52994</v>
       </c>
       <c r="D298" s="2">
-        <v>53008</v>
+        <v>52995</v>
       </c>
       <c r="E298" s="2">
-        <v>53036</v>
+        <v>53023</v>
       </c>
       <c r="F298" s="2">
-        <v>53036</v>
+        <v>53023</v>
       </c>
       <c r="G298">
         <v>7.7777777777777779E-2</v>
@@ -9105,16 +9105,16 @@
         <v>298</v>
       </c>
       <c r="C299" s="2">
-        <v>53035</v>
+        <v>53022</v>
       </c>
       <c r="D299" s="2">
-        <v>53036</v>
+        <v>53023</v>
       </c>
       <c r="E299" s="2">
-        <v>53064</v>
+        <v>53051</v>
       </c>
       <c r="F299" s="2">
-        <v>53064</v>
+        <v>53051</v>
       </c>
       <c r="G299">
         <v>7.7777777777777779E-2</v>
@@ -9134,16 +9134,16 @@
         <v>299</v>
       </c>
       <c r="C300" s="2">
-        <v>53063</v>
+        <v>53050</v>
       </c>
       <c r="D300" s="2">
-        <v>53064</v>
+        <v>53051</v>
       </c>
       <c r="E300" s="2">
-        <v>53092</v>
+        <v>53079</v>
       </c>
       <c r="F300" s="2">
-        <v>53092</v>
+        <v>53079</v>
       </c>
       <c r="G300">
         <v>7.7777777777777779E-2</v>
@@ -9163,16 +9163,16 @@
         <v>300</v>
       </c>
       <c r="C301" s="2">
-        <v>53091</v>
+        <v>53078</v>
       </c>
       <c r="D301" s="2">
-        <v>53092</v>
+        <v>53079</v>
       </c>
       <c r="E301" s="2">
-        <v>53120</v>
+        <v>53107</v>
       </c>
       <c r="F301" s="2">
-        <v>53120</v>
+        <v>53107</v>
       </c>
       <c r="G301">
         <v>7.7777777777777779E-2</v>
@@ -9192,16 +9192,16 @@
         <v>301</v>
       </c>
       <c r="C302" s="2">
-        <v>53119</v>
+        <v>53106</v>
       </c>
       <c r="D302" s="2">
-        <v>53120</v>
+        <v>53107</v>
       </c>
       <c r="E302" s="2">
-        <v>53148</v>
+        <v>53135</v>
       </c>
       <c r="F302" s="2">
-        <v>53148</v>
+        <v>53135</v>
       </c>
       <c r="G302">
         <v>7.7777777777777779E-2</v>
@@ -9221,16 +9221,16 @@
         <v>302</v>
       </c>
       <c r="C303" s="2">
-        <v>53147</v>
+        <v>53134</v>
       </c>
       <c r="D303" s="2">
-        <v>53148</v>
+        <v>53135</v>
       </c>
       <c r="E303" s="2">
-        <v>53176</v>
+        <v>53163</v>
       </c>
       <c r="F303" s="2">
-        <v>53176</v>
+        <v>53163</v>
       </c>
       <c r="G303">
         <v>7.7777777777777779E-2</v>
@@ -9250,16 +9250,16 @@
         <v>303</v>
       </c>
       <c r="C304" s="2">
-        <v>53175</v>
+        <v>53162</v>
       </c>
       <c r="D304" s="2">
-        <v>53176</v>
+        <v>53163</v>
       </c>
       <c r="E304" s="2">
-        <v>53204</v>
+        <v>53191</v>
       </c>
       <c r="F304" s="2">
-        <v>53204</v>
+        <v>53191</v>
       </c>
       <c r="G304">
         <v>7.7777777777777779E-2</v>
@@ -9279,16 +9279,16 @@
         <v>304</v>
       </c>
       <c r="C305" s="2">
-        <v>53203</v>
+        <v>53190</v>
       </c>
       <c r="D305" s="2">
-        <v>53204</v>
+        <v>53191</v>
       </c>
       <c r="E305" s="2">
-        <v>53232</v>
+        <v>53219</v>
       </c>
       <c r="F305" s="2">
-        <v>53232</v>
+        <v>53219</v>
       </c>
       <c r="G305">
         <v>7.7777777777777779E-2</v>
@@ -9308,16 +9308,16 @@
         <v>305</v>
       </c>
       <c r="C306" s="2">
-        <v>53231</v>
+        <v>53218</v>
       </c>
       <c r="D306" s="2">
-        <v>53232</v>
+        <v>53219</v>
       </c>
       <c r="E306" s="2">
-        <v>53260</v>
+        <v>53247</v>
       </c>
       <c r="F306" s="2">
-        <v>53260</v>
+        <v>53247</v>
       </c>
       <c r="G306">
         <v>7.7777777777777779E-2</v>
@@ -9337,16 +9337,16 @@
         <v>306</v>
       </c>
       <c r="C307" s="2">
-        <v>53259</v>
+        <v>53246</v>
       </c>
       <c r="D307" s="2">
-        <v>53260</v>
+        <v>53247</v>
       </c>
       <c r="E307" s="2">
-        <v>53288</v>
+        <v>53275</v>
       </c>
       <c r="F307" s="2">
-        <v>53288</v>
+        <v>53275</v>
       </c>
       <c r="G307">
         <v>7.7777777777777779E-2</v>
@@ -9366,16 +9366,16 @@
         <v>307</v>
       </c>
       <c r="C308" s="2">
-        <v>53287</v>
+        <v>53274</v>
       </c>
       <c r="D308" s="2">
-        <v>53288</v>
+        <v>53275</v>
       </c>
       <c r="E308" s="2">
-        <v>53316</v>
+        <v>53303</v>
       </c>
       <c r="F308" s="2">
-        <v>53316</v>
+        <v>53303</v>
       </c>
       <c r="G308">
         <v>7.7777777777777779E-2</v>
@@ -9395,16 +9395,16 @@
         <v>308</v>
       </c>
       <c r="C309" s="2">
-        <v>53315</v>
+        <v>53302</v>
       </c>
       <c r="D309" s="2">
-        <v>53316</v>
+        <v>53303</v>
       </c>
       <c r="E309" s="2">
-        <v>53344</v>
+        <v>53331</v>
       </c>
       <c r="F309" s="2">
-        <v>53344</v>
+        <v>53331</v>
       </c>
       <c r="G309">
         <v>7.7777777777777779E-2</v>
@@ -9424,16 +9424,16 @@
         <v>309</v>
       </c>
       <c r="C310" s="2">
-        <v>53343</v>
+        <v>53330</v>
       </c>
       <c r="D310" s="2">
-        <v>53344</v>
+        <v>53331</v>
       </c>
       <c r="E310" s="2">
-        <v>53372</v>
+        <v>53359</v>
       </c>
       <c r="F310" s="2">
-        <v>53372</v>
+        <v>53359</v>
       </c>
       <c r="G310">
         <v>7.7777777777777779E-2</v>
@@ -9453,16 +9453,16 @@
         <v>310</v>
       </c>
       <c r="C311" s="2">
-        <v>53371</v>
+        <v>53358</v>
       </c>
       <c r="D311" s="2">
-        <v>53372</v>
+        <v>53359</v>
       </c>
       <c r="E311" s="2">
-        <v>53400</v>
+        <v>53387</v>
       </c>
       <c r="F311" s="2">
-        <v>53400</v>
+        <v>53387</v>
       </c>
       <c r="G311">
         <v>7.7777777777777779E-2</v>
@@ -9482,16 +9482,16 @@
         <v>311</v>
       </c>
       <c r="C312" s="2">
-        <v>53399</v>
+        <v>53386</v>
       </c>
       <c r="D312" s="2">
-        <v>53400</v>
+        <v>53387</v>
       </c>
       <c r="E312" s="2">
-        <v>53428</v>
+        <v>53415</v>
       </c>
       <c r="F312" s="2">
-        <v>53428</v>
+        <v>53415</v>
       </c>
       <c r="G312">
         <v>7.7777777777777779E-2</v>
@@ -9511,16 +9511,16 @@
         <v>312</v>
       </c>
       <c r="C313" s="2">
-        <v>53427</v>
+        <v>53414</v>
       </c>
       <c r="D313" s="2">
-        <v>53428</v>
+        <v>53415</v>
       </c>
       <c r="E313" s="2">
-        <v>53456</v>
+        <v>53443</v>
       </c>
       <c r="F313" s="2">
-        <v>53456</v>
+        <v>53443</v>
       </c>
       <c r="G313">
         <v>7.7777777777777779E-2</v>
@@ -9540,16 +9540,16 @@
         <v>313</v>
       </c>
       <c r="C314" s="2">
-        <v>53455</v>
+        <v>53442</v>
       </c>
       <c r="D314" s="2">
-        <v>53456</v>
+        <v>53443</v>
       </c>
       <c r="E314" s="2">
-        <v>53484</v>
+        <v>53471</v>
       </c>
       <c r="F314" s="2">
-        <v>53484</v>
+        <v>53471</v>
       </c>
       <c r="G314">
         <v>7.7777777777777779E-2</v>
@@ -9569,16 +9569,16 @@
         <v>314</v>
       </c>
       <c r="C315" s="2">
-        <v>53483</v>
+        <v>53470</v>
       </c>
       <c r="D315" s="2">
-        <v>53484</v>
+        <v>53471</v>
       </c>
       <c r="E315" s="2">
-        <v>53512</v>
+        <v>53499</v>
       </c>
       <c r="F315" s="2">
-        <v>53512</v>
+        <v>53499</v>
       </c>
       <c r="G315">
         <v>7.7777777777777779E-2</v>
@@ -9598,16 +9598,16 @@
         <v>315</v>
       </c>
       <c r="C316" s="2">
-        <v>53511</v>
+        <v>53498</v>
       </c>
       <c r="D316" s="2">
-        <v>53512</v>
+        <v>53499</v>
       </c>
       <c r="E316" s="2">
-        <v>53540</v>
+        <v>53527</v>
       </c>
       <c r="F316" s="2">
-        <v>53540</v>
+        <v>53527</v>
       </c>
       <c r="G316">
         <v>7.7777777777777779E-2</v>
@@ -9627,16 +9627,16 @@
         <v>316</v>
       </c>
       <c r="C317" s="2">
-        <v>53539</v>
+        <v>53526</v>
       </c>
       <c r="D317" s="2">
-        <v>53540</v>
+        <v>53527</v>
       </c>
       <c r="E317" s="2">
-        <v>53568</v>
+        <v>53555</v>
       </c>
       <c r="F317" s="2">
-        <v>53568</v>
+        <v>53555</v>
       </c>
       <c r="G317">
         <v>7.7777777777777779E-2</v>
@@ -9656,16 +9656,16 @@
         <v>317</v>
       </c>
       <c r="C318" s="2">
-        <v>53567</v>
+        <v>53554</v>
       </c>
       <c r="D318" s="2">
-        <v>53568</v>
+        <v>53555</v>
       </c>
       <c r="E318" s="2">
-        <v>53596</v>
+        <v>53583</v>
       </c>
       <c r="F318" s="2">
-        <v>53596</v>
+        <v>53583</v>
       </c>
       <c r="G318">
         <v>7.7777777777777779E-2</v>
@@ -9685,16 +9685,16 @@
         <v>318</v>
       </c>
       <c r="C319" s="2">
-        <v>53595</v>
+        <v>53582</v>
       </c>
       <c r="D319" s="2">
-        <v>53596</v>
+        <v>53583</v>
       </c>
       <c r="E319" s="2">
-        <v>53624</v>
+        <v>53611</v>
       </c>
       <c r="F319" s="2">
-        <v>53624</v>
+        <v>53611</v>
       </c>
       <c r="G319">
         <v>7.7777777777777779E-2</v>
@@ -9714,16 +9714,16 @@
         <v>319</v>
       </c>
       <c r="C320" s="2">
-        <v>53623</v>
+        <v>53610</v>
       </c>
       <c r="D320" s="2">
-        <v>53624</v>
+        <v>53611</v>
       </c>
       <c r="E320" s="2">
-        <v>53652</v>
+        <v>53639</v>
       </c>
       <c r="F320" s="2">
-        <v>53652</v>
+        <v>53639</v>
       </c>
       <c r="G320">
         <v>7.7777777777777779E-2</v>
@@ -9743,16 +9743,16 @@
         <v>320</v>
       </c>
       <c r="C321" s="2">
-        <v>53651</v>
+        <v>53638</v>
       </c>
       <c r="D321" s="2">
-        <v>53652</v>
+        <v>53639</v>
       </c>
       <c r="E321" s="2">
-        <v>53680</v>
+        <v>53667</v>
       </c>
       <c r="F321" s="2">
-        <v>53680</v>
+        <v>53667</v>
       </c>
       <c r="G321">
         <v>7.7777777777777779E-2</v>
@@ -9772,16 +9772,16 @@
         <v>321</v>
       </c>
       <c r="C322" s="2">
-        <v>53679</v>
+        <v>53666</v>
       </c>
       <c r="D322" s="2">
-        <v>53680</v>
+        <v>53667</v>
       </c>
       <c r="E322" s="2">
-        <v>53708</v>
+        <v>53695</v>
       </c>
       <c r="F322" s="2">
-        <v>53708</v>
+        <v>53695</v>
       </c>
       <c r="G322">
         <v>7.7777777777777779E-2</v>
@@ -9801,16 +9801,16 @@
         <v>322</v>
       </c>
       <c r="C323" s="2">
-        <v>53707</v>
+        <v>53694</v>
       </c>
       <c r="D323" s="2">
-        <v>53708</v>
+        <v>53695</v>
       </c>
       <c r="E323" s="2">
-        <v>53736</v>
+        <v>53723</v>
       </c>
       <c r="F323" s="2">
-        <v>53736</v>
+        <v>53723</v>
       </c>
       <c r="G323">
         <v>7.7777777777777779E-2</v>
@@ -9830,16 +9830,16 @@
         <v>323</v>
       </c>
       <c r="C324" s="2">
-        <v>53735</v>
+        <v>53722</v>
       </c>
       <c r="D324" s="2">
-        <v>53736</v>
+        <v>53723</v>
       </c>
       <c r="E324" s="2">
-        <v>53764</v>
+        <v>53751</v>
       </c>
       <c r="F324" s="2">
-        <v>53764</v>
+        <v>53751</v>
       </c>
       <c r="G324">
         <v>7.7777777777777779E-2</v>
@@ -9859,16 +9859,16 @@
         <v>324</v>
       </c>
       <c r="C325" s="2">
-        <v>53763</v>
+        <v>53750</v>
       </c>
       <c r="D325" s="2">
-        <v>53764</v>
+        <v>53751</v>
       </c>
       <c r="E325" s="2">
-        <v>53792</v>
+        <v>53779</v>
       </c>
       <c r="F325" s="2">
-        <v>53792</v>
+        <v>53779</v>
       </c>
       <c r="G325">
         <v>7.7777777777777779E-2</v>
@@ -9888,16 +9888,16 @@
         <v>325</v>
       </c>
       <c r="C326" s="2">
-        <v>53791</v>
+        <v>53778</v>
       </c>
       <c r="D326" s="2">
-        <v>53792</v>
+        <v>53779</v>
       </c>
       <c r="E326" s="2">
-        <v>53820</v>
+        <v>53807</v>
       </c>
       <c r="F326" s="2">
-        <v>53820</v>
+        <v>53807</v>
       </c>
       <c r="G326">
         <v>7.7777777777777779E-2</v>
@@ -9917,16 +9917,16 @@
         <v>326</v>
       </c>
       <c r="C327" s="2">
-        <v>53819</v>
+        <v>53806</v>
       </c>
       <c r="D327" s="2">
-        <v>53820</v>
+        <v>53807</v>
       </c>
       <c r="E327" s="2">
-        <v>53848</v>
+        <v>53835</v>
       </c>
       <c r="F327" s="2">
-        <v>53848</v>
+        <v>53835</v>
       </c>
       <c r="G327">
         <v>7.7777777777777779E-2</v>
@@ -9946,16 +9946,16 @@
         <v>327</v>
       </c>
       <c r="C328" s="2">
-        <v>53847</v>
+        <v>53834</v>
       </c>
       <c r="D328" s="2">
-        <v>53848</v>
+        <v>53835</v>
       </c>
       <c r="E328" s="2">
-        <v>53876</v>
+        <v>53863</v>
       </c>
       <c r="F328" s="2">
-        <v>53876</v>
+        <v>53863</v>
       </c>
       <c r="G328">
         <v>7.7777777777777779E-2</v>
@@ -9975,16 +9975,16 @@
         <v>328</v>
       </c>
       <c r="C329" s="2">
-        <v>53875</v>
+        <v>53862</v>
       </c>
       <c r="D329" s="2">
-        <v>53876</v>
+        <v>53863</v>
       </c>
       <c r="E329" s="2">
-        <v>53904</v>
+        <v>53891</v>
       </c>
       <c r="F329" s="2">
-        <v>53904</v>
+        <v>53891</v>
       </c>
       <c r="G329">
         <v>7.7777777777777779E-2</v>
@@ -10004,16 +10004,16 @@
         <v>329</v>
       </c>
       <c r="C330" s="2">
-        <v>53903</v>
+        <v>53890</v>
       </c>
       <c r="D330" s="2">
-        <v>53904</v>
+        <v>53891</v>
       </c>
       <c r="E330" s="2">
-        <v>53932</v>
+        <v>53919</v>
       </c>
       <c r="F330" s="2">
-        <v>53932</v>
+        <v>53919</v>
       </c>
       <c r="G330">
         <v>7.7777777777777779E-2</v>
@@ -10033,16 +10033,16 @@
         <v>330</v>
       </c>
       <c r="C331" s="2">
-        <v>53931</v>
+        <v>53918</v>
       </c>
       <c r="D331" s="2">
-        <v>53932</v>
+        <v>53919</v>
       </c>
       <c r="E331" s="2">
-        <v>53960</v>
+        <v>53947</v>
       </c>
       <c r="F331" s="2">
-        <v>53960</v>
+        <v>53947</v>
       </c>
       <c r="G331">
         <v>7.7777777777777779E-2</v>
@@ -10062,16 +10062,16 @@
         <v>331</v>
       </c>
       <c r="C332" s="2">
-        <v>53959</v>
+        <v>53946</v>
       </c>
       <c r="D332" s="2">
-        <v>53960</v>
+        <v>53947</v>
       </c>
       <c r="E332" s="2">
-        <v>53988</v>
+        <v>53975</v>
       </c>
       <c r="F332" s="2">
-        <v>53988</v>
+        <v>53975</v>
       </c>
       <c r="G332">
         <v>7.7777777777777779E-2</v>
@@ -10091,16 +10091,16 @@
         <v>332</v>
       </c>
       <c r="C333" s="2">
-        <v>53987</v>
+        <v>53974</v>
       </c>
       <c r="D333" s="2">
-        <v>53988</v>
+        <v>53975</v>
       </c>
       <c r="E333" s="2">
-        <v>54016</v>
+        <v>54003</v>
       </c>
       <c r="F333" s="2">
-        <v>54016</v>
+        <v>54003</v>
       </c>
       <c r="G333">
         <v>7.7777777777777779E-2</v>
@@ -10120,16 +10120,16 @@
         <v>333</v>
       </c>
       <c r="C334" s="2">
-        <v>54015</v>
+        <v>54002</v>
       </c>
       <c r="D334" s="2">
-        <v>54016</v>
+        <v>54003</v>
       </c>
       <c r="E334" s="2">
-        <v>54044</v>
+        <v>54031</v>
       </c>
       <c r="F334" s="2">
-        <v>54044</v>
+        <v>54031</v>
       </c>
       <c r="G334">
         <v>7.7777777777777779E-2</v>
@@ -10149,16 +10149,16 @@
         <v>334</v>
       </c>
       <c r="C335" s="2">
-        <v>54043</v>
+        <v>54030</v>
       </c>
       <c r="D335" s="2">
-        <v>54044</v>
+        <v>54031</v>
       </c>
       <c r="E335" s="2">
-        <v>54072</v>
+        <v>54059</v>
       </c>
       <c r="F335" s="2">
-        <v>54072</v>
+        <v>54059</v>
       </c>
       <c r="G335">
         <v>7.7777777777777779E-2</v>
@@ -10178,16 +10178,16 @@
         <v>335</v>
       </c>
       <c r="C336" s="2">
-        <v>54071</v>
+        <v>54058</v>
       </c>
       <c r="D336" s="2">
-        <v>54072</v>
+        <v>54059</v>
       </c>
       <c r="E336" s="2">
-        <v>54100</v>
+        <v>54087</v>
       </c>
       <c r="F336" s="2">
-        <v>54100</v>
+        <v>54087</v>
       </c>
       <c r="G336">
         <v>7.7777777777777779E-2</v>
@@ -10207,16 +10207,16 @@
         <v>336</v>
       </c>
       <c r="C337" s="2">
-        <v>54099</v>
+        <v>54086</v>
       </c>
       <c r="D337" s="2">
-        <v>54100</v>
+        <v>54087</v>
       </c>
       <c r="E337" s="2">
-        <v>54128</v>
+        <v>54115</v>
       </c>
       <c r="F337" s="2">
-        <v>54128</v>
+        <v>54115</v>
       </c>
       <c r="G337">
         <v>7.7777777777777779E-2</v>
@@ -10236,16 +10236,16 @@
         <v>337</v>
       </c>
       <c r="C338" s="2">
-        <v>54127</v>
+        <v>54114</v>
       </c>
       <c r="D338" s="2">
-        <v>54128</v>
+        <v>54115</v>
       </c>
       <c r="E338" s="2">
-        <v>54156</v>
+        <v>54143</v>
       </c>
       <c r="F338" s="2">
-        <v>54156</v>
+        <v>54143</v>
       </c>
       <c r="G338">
         <v>7.7777777777777779E-2</v>
@@ -10265,16 +10265,16 @@
         <v>338</v>
       </c>
       <c r="C339" s="2">
-        <v>54155</v>
+        <v>54142</v>
       </c>
       <c r="D339" s="2">
-        <v>54156</v>
+        <v>54143</v>
       </c>
       <c r="E339" s="2">
-        <v>54184</v>
+        <v>54171</v>
       </c>
       <c r="F339" s="2">
-        <v>54184</v>
+        <v>54171</v>
       </c>
       <c r="G339">
         <v>7.7777777777777779E-2</v>
@@ -10294,16 +10294,16 @@
         <v>339</v>
       </c>
       <c r="C340" s="2">
-        <v>54183</v>
+        <v>54170</v>
       </c>
       <c r="D340" s="2">
-        <v>54184</v>
+        <v>54171</v>
       </c>
       <c r="E340" s="2">
-        <v>54212</v>
+        <v>54199</v>
       </c>
       <c r="F340" s="2">
-        <v>54212</v>
+        <v>54199</v>
       </c>
       <c r="G340">
         <v>7.7777777777777779E-2</v>
@@ -10323,16 +10323,16 @@
         <v>340</v>
       </c>
       <c r="C341" s="2">
-        <v>54211</v>
+        <v>54198</v>
       </c>
       <c r="D341" s="2">
-        <v>54212</v>
+        <v>54199</v>
       </c>
       <c r="E341" s="2">
-        <v>54240</v>
+        <v>54227</v>
       </c>
       <c r="F341" s="2">
-        <v>54240</v>
+        <v>54227</v>
       </c>
       <c r="G341">
         <v>7.7777777777777779E-2</v>
@@ -10352,16 +10352,16 @@
         <v>341</v>
       </c>
       <c r="C342" s="2">
-        <v>54239</v>
+        <v>54226</v>
       </c>
       <c r="D342" s="2">
-        <v>54240</v>
+        <v>54227</v>
       </c>
       <c r="E342" s="2">
-        <v>54268</v>
+        <v>54255</v>
       </c>
       <c r="F342" s="2">
-        <v>54268</v>
+        <v>54255</v>
       </c>
       <c r="G342">
         <v>7.7777777777777779E-2</v>
@@ -10381,16 +10381,16 @@
         <v>342</v>
       </c>
       <c r="C343" s="2">
-        <v>54267</v>
+        <v>54254</v>
       </c>
       <c r="D343" s="2">
-        <v>54268</v>
+        <v>54255</v>
       </c>
       <c r="E343" s="2">
-        <v>54296</v>
+        <v>54283</v>
       </c>
       <c r="F343" s="2">
-        <v>54296</v>
+        <v>54283</v>
       </c>
       <c r="G343">
         <v>7.7777777777777779E-2</v>
@@ -10410,16 +10410,16 @@
         <v>343</v>
       </c>
       <c r="C344" s="2">
-        <v>54295</v>
+        <v>54282</v>
       </c>
       <c r="D344" s="2">
-        <v>54296</v>
+        <v>54283</v>
       </c>
       <c r="E344" s="2">
-        <v>54324</v>
+        <v>54311</v>
       </c>
       <c r="F344" s="2">
-        <v>54324</v>
+        <v>54311</v>
       </c>
       <c r="G344">
         <v>7.7777777777777779E-2</v>
@@ -10439,16 +10439,16 @@
         <v>344</v>
       </c>
       <c r="C345" s="2">
-        <v>54323</v>
+        <v>54310</v>
       </c>
       <c r="D345" s="2">
-        <v>54324</v>
+        <v>54311</v>
       </c>
       <c r="E345" s="2">
-        <v>54352</v>
+        <v>54339</v>
       </c>
       <c r="F345" s="2">
-        <v>54352</v>
+        <v>54339</v>
       </c>
       <c r="G345">
         <v>7.7777777777777779E-2</v>
@@ -10468,16 +10468,16 @@
         <v>345</v>
       </c>
       <c r="C346" s="2">
-        <v>54351</v>
+        <v>54338</v>
       </c>
       <c r="D346" s="2">
-        <v>54352</v>
+        <v>54339</v>
       </c>
       <c r="E346" s="2">
-        <v>54380</v>
+        <v>54367</v>
       </c>
       <c r="F346" s="2">
-        <v>54380</v>
+        <v>54367</v>
       </c>
       <c r="G346">
         <v>7.7777777777777779E-2</v>
@@ -10497,16 +10497,16 @@
         <v>346</v>
       </c>
       <c r="C347" s="2">
-        <v>54379</v>
+        <v>54366</v>
       </c>
       <c r="D347" s="2">
-        <v>54380</v>
+        <v>54367</v>
       </c>
       <c r="E347" s="2">
-        <v>54408</v>
+        <v>54395</v>
       </c>
       <c r="F347" s="2">
-        <v>54408</v>
+        <v>54395</v>
       </c>
       <c r="G347">
         <v>7.7777777777777779E-2</v>
@@ -10526,16 +10526,16 @@
         <v>347</v>
       </c>
       <c r="C348" s="2">
-        <v>54407</v>
+        <v>54394</v>
       </c>
       <c r="D348" s="2">
-        <v>54408</v>
+        <v>54395</v>
       </c>
       <c r="E348" s="2">
-        <v>54436</v>
+        <v>54423</v>
       </c>
       <c r="F348" s="2">
-        <v>54436</v>
+        <v>54423</v>
       </c>
       <c r="G348">
         <v>7.7777777777777779E-2</v>
@@ -10555,16 +10555,16 @@
         <v>348</v>
       </c>
       <c r="C349" s="2">
-        <v>54435</v>
+        <v>54422</v>
       </c>
       <c r="D349" s="2">
-        <v>54436</v>
+        <v>54423</v>
       </c>
       <c r="E349" s="2">
-        <v>54464</v>
+        <v>54451</v>
       </c>
       <c r="F349" s="2">
-        <v>54464</v>
+        <v>54451</v>
       </c>
       <c r="G349">
         <v>7.7777777777777779E-2</v>
@@ -10584,16 +10584,16 @@
         <v>349</v>
       </c>
       <c r="C350" s="2">
-        <v>54463</v>
+        <v>54450</v>
       </c>
       <c r="D350" s="2">
-        <v>54464</v>
+        <v>54451</v>
       </c>
       <c r="E350" s="2">
-        <v>54492</v>
+        <v>54479</v>
       </c>
       <c r="F350" s="2">
-        <v>54492</v>
+        <v>54479</v>
       </c>
       <c r="G350">
         <v>7.7777777777777779E-2</v>
@@ -10613,16 +10613,16 @@
         <v>350</v>
       </c>
       <c r="C351" s="2">
-        <v>54491</v>
+        <v>54478</v>
       </c>
       <c r="D351" s="2">
-        <v>54492</v>
+        <v>54479</v>
       </c>
       <c r="E351" s="2">
-        <v>54520</v>
+        <v>54507</v>
       </c>
       <c r="F351" s="2">
-        <v>54520</v>
+        <v>54507</v>
       </c>
       <c r="G351">
         <v>7.7777777777777779E-2</v>
@@ -10642,16 +10642,16 @@
         <v>351</v>
       </c>
       <c r="C352" s="2">
-        <v>54519</v>
+        <v>54506</v>
       </c>
       <c r="D352" s="2">
-        <v>54520</v>
+        <v>54507</v>
       </c>
       <c r="E352" s="2">
-        <v>54548</v>
+        <v>54535</v>
       </c>
       <c r="F352" s="2">
-        <v>54548</v>
+        <v>54535</v>
       </c>
       <c r="G352">
         <v>7.7777777777777779E-2</v>
@@ -10671,16 +10671,16 @@
         <v>352</v>
       </c>
       <c r="C353" s="2">
-        <v>54547</v>
+        <v>54534</v>
       </c>
       <c r="D353" s="2">
-        <v>54548</v>
+        <v>54535</v>
       </c>
       <c r="E353" s="2">
-        <v>54576</v>
+        <v>54563</v>
       </c>
       <c r="F353" s="2">
-        <v>54576</v>
+        <v>54563</v>
       </c>
       <c r="G353">
         <v>7.7777777777777779E-2</v>
@@ -10700,16 +10700,16 @@
         <v>353</v>
       </c>
       <c r="C354" s="2">
-        <v>54575</v>
+        <v>54562</v>
       </c>
       <c r="D354" s="2">
-        <v>54576</v>
+        <v>54563</v>
       </c>
       <c r="E354" s="2">
-        <v>54604</v>
+        <v>54591</v>
       </c>
       <c r="F354" s="2">
-        <v>54604</v>
+        <v>54591</v>
       </c>
       <c r="G354">
         <v>7.7777777777777779E-2</v>
@@ -10729,16 +10729,16 @@
         <v>354</v>
       </c>
       <c r="C355" s="2">
-        <v>54603</v>
+        <v>54590</v>
       </c>
       <c r="D355" s="2">
-        <v>54604</v>
+        <v>54591</v>
       </c>
       <c r="E355" s="2">
-        <v>54632</v>
+        <v>54619</v>
       </c>
       <c r="F355" s="2">
-        <v>54632</v>
+        <v>54619</v>
       </c>
       <c r="G355">
         <v>7.7777777777777779E-2</v>
@@ -10758,16 +10758,16 @@
         <v>355</v>
       </c>
       <c r="C356" s="2">
-        <v>54631</v>
+        <v>54618</v>
       </c>
       <c r="D356" s="2">
-        <v>54632</v>
+        <v>54619</v>
       </c>
       <c r="E356" s="2">
-        <v>54660</v>
+        <v>54647</v>
       </c>
       <c r="F356" s="2">
-        <v>54660</v>
+        <v>54647</v>
       </c>
       <c r="G356">
         <v>7.7777777777777779E-2</v>
@@ -10787,16 +10787,16 @@
         <v>356</v>
       </c>
       <c r="C357" s="2">
-        <v>54659</v>
+        <v>54646</v>
       </c>
       <c r="D357" s="2">
-        <v>54660</v>
+        <v>54647</v>
       </c>
       <c r="E357" s="2">
-        <v>54688</v>
+        <v>54675</v>
       </c>
       <c r="F357" s="2">
-        <v>54688</v>
+        <v>54675</v>
       </c>
       <c r="G357">
         <v>7.7777777777777779E-2</v>
@@ -10816,16 +10816,16 @@
         <v>357</v>
       </c>
       <c r="C358" s="2">
-        <v>54687</v>
+        <v>54674</v>
       </c>
       <c r="D358" s="2">
-        <v>54688</v>
+        <v>54675</v>
       </c>
       <c r="E358" s="2">
-        <v>54716</v>
+        <v>54703</v>
       </c>
       <c r="F358" s="2">
-        <v>54716</v>
+        <v>54703</v>
       </c>
       <c r="G358">
         <v>7.7777777777777779E-2</v>
@@ -10845,16 +10845,16 @@
         <v>358</v>
       </c>
       <c r="C359" s="2">
-        <v>54715</v>
+        <v>54702</v>
       </c>
       <c r="D359" s="2">
-        <v>54716</v>
+        <v>54703</v>
       </c>
       <c r="E359" s="2">
-        <v>54744</v>
+        <v>54731</v>
       </c>
       <c r="F359" s="2">
-        <v>54744</v>
+        <v>54731</v>
       </c>
       <c r="G359">
         <v>7.7777777777777779E-2</v>
@@ -10874,16 +10874,16 @@
         <v>359</v>
       </c>
       <c r="C360" s="2">
-        <v>54743</v>
+        <v>54730</v>
       </c>
       <c r="D360" s="2">
-        <v>54744</v>
+        <v>54731</v>
       </c>
       <c r="E360" s="2">
-        <v>54772</v>
+        <v>54759</v>
       </c>
       <c r="F360" s="2">
-        <v>54772</v>
+        <v>54759</v>
       </c>
       <c r="G360">
         <v>7.7777777777777779E-2</v>
@@ -10903,16 +10903,16 @@
         <v>360</v>
       </c>
       <c r="C361" s="2">
-        <v>54771</v>
+        <v>54758</v>
       </c>
       <c r="D361" s="2">
-        <v>54772</v>
+        <v>54759</v>
       </c>
       <c r="E361" s="2">
-        <v>54800</v>
+        <v>54787</v>
       </c>
       <c r="F361" s="2">
-        <v>54800</v>
+        <v>54787</v>
       </c>
       <c r="G361">
         <v>7.7777777777777779E-2</v>
@@ -10932,16 +10932,16 @@
         <v>361</v>
       </c>
       <c r="C362" s="2">
-        <v>54799</v>
+        <v>54786</v>
       </c>
       <c r="D362" s="2">
-        <v>54800</v>
+        <v>54787</v>
       </c>
       <c r="E362" s="2">
-        <v>54828</v>
+        <v>54815</v>
       </c>
       <c r="F362" s="2">
-        <v>54828</v>
+        <v>54815</v>
       </c>
       <c r="G362">
         <v>7.7777777777777779E-2</v>
@@ -10961,16 +10961,16 @@
         <v>362</v>
       </c>
       <c r="C363" s="2">
-        <v>54827</v>
+        <v>54814</v>
       </c>
       <c r="D363" s="2">
-        <v>54828</v>
+        <v>54815</v>
       </c>
       <c r="E363" s="2">
-        <v>54856</v>
+        <v>54843</v>
       </c>
       <c r="F363" s="2">
-        <v>54856</v>
+        <v>54843</v>
       </c>
       <c r="G363">
         <v>7.7777777777777779E-2</v>
@@ -10990,16 +10990,16 @@
         <v>363</v>
       </c>
       <c r="C364" s="2">
-        <v>54855</v>
+        <v>54842</v>
       </c>
       <c r="D364" s="2">
-        <v>54856</v>
+        <v>54843</v>
       </c>
       <c r="E364" s="2">
-        <v>54884</v>
+        <v>54871</v>
       </c>
       <c r="F364" s="2">
-        <v>54884</v>
+        <v>54871</v>
       </c>
       <c r="G364">
         <v>7.7777777777777779E-2</v>
@@ -11019,16 +11019,16 @@
         <v>364</v>
       </c>
       <c r="C365" s="2">
-        <v>54883</v>
+        <v>54870</v>
       </c>
       <c r="D365" s="2">
-        <v>54884</v>
+        <v>54871</v>
       </c>
       <c r="E365" s="2">
-        <v>54912</v>
+        <v>54899</v>
       </c>
       <c r="F365" s="2">
-        <v>54912</v>
+        <v>54899</v>
       </c>
       <c r="G365">
         <v>7.7777777777777779E-2</v>
@@ -11048,16 +11048,16 @@
         <v>365</v>
       </c>
       <c r="C366" s="2">
-        <v>54911</v>
+        <v>54898</v>
       </c>
       <c r="D366" s="2">
-        <v>54912</v>
+        <v>54899</v>
       </c>
       <c r="E366" s="2">
-        <v>54940</v>
+        <v>54927</v>
       </c>
       <c r="F366" s="2">
-        <v>54940</v>
+        <v>54927</v>
       </c>
       <c r="G366">
         <v>7.7777777777777779E-2</v>
@@ -11077,16 +11077,16 @@
         <v>366</v>
       </c>
       <c r="C367" s="2">
-        <v>54939</v>
+        <v>54926</v>
       </c>
       <c r="D367" s="2">
-        <v>54940</v>
+        <v>54927</v>
       </c>
       <c r="E367" s="2">
-        <v>54968</v>
+        <v>54955</v>
       </c>
       <c r="F367" s="2">
-        <v>54968</v>
+        <v>54955</v>
       </c>
       <c r="G367">
         <v>7.7777777777777779E-2</v>
@@ -11106,16 +11106,16 @@
         <v>367</v>
       </c>
       <c r="C368" s="2">
-        <v>54967</v>
+        <v>54954</v>
       </c>
       <c r="D368" s="2">
-        <v>54968</v>
+        <v>54955</v>
       </c>
       <c r="E368" s="2">
-        <v>54996</v>
+        <v>54983</v>
       </c>
       <c r="F368" s="2">
-        <v>54996</v>
+        <v>54983</v>
       </c>
       <c r="G368">
         <v>7.7777777777777779E-2</v>
@@ -11135,16 +11135,16 @@
         <v>368</v>
       </c>
       <c r="C369" s="2">
-        <v>54995</v>
+        <v>54982</v>
       </c>
       <c r="D369" s="2">
-        <v>54996</v>
+        <v>54983</v>
       </c>
       <c r="E369" s="2">
-        <v>55024</v>
+        <v>55011</v>
       </c>
       <c r="F369" s="2">
-        <v>55024</v>
+        <v>55011</v>
       </c>
       <c r="G369">
         <v>7.7777777777777779E-2</v>
@@ -11164,16 +11164,16 @@
         <v>369</v>
       </c>
       <c r="C370" s="2">
-        <v>55023</v>
+        <v>55010</v>
       </c>
       <c r="D370" s="2">
-        <v>55024</v>
+        <v>55011</v>
       </c>
       <c r="E370" s="2">
-        <v>55052</v>
+        <v>55039</v>
       </c>
       <c r="F370" s="2">
-        <v>55052</v>
+        <v>55039</v>
       </c>
       <c r="G370">
         <v>7.7777777777777779E-2</v>
@@ -11193,16 +11193,16 @@
         <v>370</v>
       </c>
       <c r="C371" s="2">
-        <v>55051</v>
+        <v>55038</v>
       </c>
       <c r="D371" s="2">
-        <v>55052</v>
+        <v>55039</v>
       </c>
       <c r="E371" s="2">
-        <v>55080</v>
+        <v>55067</v>
       </c>
       <c r="F371" s="2">
-        <v>55080</v>
+        <v>55067</v>
       </c>
       <c r="G371">
         <v>7.7777777777777779E-2</v>
@@ -11222,16 +11222,16 @@
         <v>371</v>
       </c>
       <c r="C372" s="2">
-        <v>55079</v>
+        <v>55066</v>
       </c>
       <c r="D372" s="2">
-        <v>55080</v>
+        <v>55067</v>
       </c>
       <c r="E372" s="2">
-        <v>55108</v>
+        <v>55095</v>
       </c>
       <c r="F372" s="2">
-        <v>55108</v>
+        <v>55095</v>
       </c>
       <c r="G372">
         <v>7.7777777777777779E-2</v>
@@ -11251,16 +11251,16 @@
         <v>372</v>
       </c>
       <c r="C373" s="2">
-        <v>55107</v>
+        <v>55094</v>
       </c>
       <c r="D373" s="2">
-        <v>55108</v>
+        <v>55095</v>
       </c>
       <c r="E373" s="2">
-        <v>55136</v>
+        <v>55123</v>
       </c>
       <c r="F373" s="2">
-        <v>55136</v>
+        <v>55123</v>
       </c>
       <c r="G373">
         <v>7.7777777777777779E-2</v>
@@ -11280,16 +11280,16 @@
         <v>373</v>
       </c>
       <c r="C374" s="2">
-        <v>55135</v>
+        <v>55122</v>
       </c>
       <c r="D374" s="2">
-        <v>55136</v>
+        <v>55123</v>
       </c>
       <c r="E374" s="2">
-        <v>55164</v>
+        <v>55151</v>
       </c>
       <c r="F374" s="2">
-        <v>55164</v>
+        <v>55151</v>
       </c>
       <c r="G374">
         <v>7.7777777777777779E-2</v>
@@ -11309,16 +11309,16 @@
         <v>374</v>
       </c>
       <c r="C375" s="2">
-        <v>55163</v>
+        <v>55150</v>
       </c>
       <c r="D375" s="2">
-        <v>55164</v>
+        <v>55151</v>
       </c>
       <c r="E375" s="2">
-        <v>55192</v>
+        <v>55179</v>
       </c>
       <c r="F375" s="2">
-        <v>55192</v>
+        <v>55179</v>
       </c>
       <c r="G375">
         <v>7.7777777777777779E-2</v>
@@ -11338,16 +11338,16 @@
         <v>375</v>
       </c>
       <c r="C376" s="2">
-        <v>55191</v>
+        <v>55178</v>
       </c>
       <c r="D376" s="2">
-        <v>55192</v>
+        <v>55179</v>
       </c>
       <c r="E376" s="2">
-        <v>55220</v>
+        <v>55207</v>
       </c>
       <c r="F376" s="2">
-        <v>55220</v>
+        <v>55207</v>
       </c>
       <c r="G376">
         <v>7.7777777777777779E-2</v>
@@ -11367,16 +11367,16 @@
         <v>376</v>
       </c>
       <c r="C377" s="2">
-        <v>55219</v>
+        <v>55206</v>
       </c>
       <c r="D377" s="2">
-        <v>55220</v>
+        <v>55207</v>
       </c>
       <c r="E377" s="2">
-        <v>55248</v>
+        <v>55235</v>
       </c>
       <c r="F377" s="2">
-        <v>55248</v>
+        <v>55235</v>
       </c>
       <c r="G377">
         <v>7.7777777777777779E-2</v>
@@ -11396,16 +11396,16 @@
         <v>377</v>
       </c>
       <c r="C378" s="2">
-        <v>55247</v>
+        <v>55234</v>
       </c>
       <c r="D378" s="2">
-        <v>55248</v>
+        <v>55235</v>
       </c>
       <c r="E378" s="2">
-        <v>55276</v>
+        <v>55263</v>
       </c>
       <c r="F378" s="2">
-        <v>55276</v>
+        <v>55263</v>
       </c>
       <c r="G378">
         <v>7.7777777777777779E-2</v>
@@ -11425,16 +11425,16 @@
         <v>378</v>
       </c>
       <c r="C379" s="2">
-        <v>55275</v>
+        <v>55262</v>
       </c>
       <c r="D379" s="2">
-        <v>55276</v>
+        <v>55263</v>
       </c>
       <c r="E379" s="2">
-        <v>55304</v>
+        <v>55291</v>
       </c>
       <c r="F379" s="2">
-        <v>55304</v>
+        <v>55291</v>
       </c>
       <c r="G379">
         <v>7.7777777777777779E-2</v>
@@ -11454,16 +11454,16 @@
         <v>379</v>
       </c>
       <c r="C380" s="2">
-        <v>55303</v>
+        <v>55290</v>
       </c>
       <c r="D380" s="2">
-        <v>55304</v>
+        <v>55291</v>
       </c>
       <c r="E380" s="2">
-        <v>55332</v>
+        <v>55319</v>
       </c>
       <c r="F380" s="2">
-        <v>55332</v>
+        <v>55319</v>
       </c>
       <c r="G380">
         <v>7.7777777777777779E-2</v>
@@ -11483,16 +11483,16 @@
         <v>380</v>
       </c>
       <c r="C381" s="2">
-        <v>55331</v>
+        <v>55318</v>
       </c>
       <c r="D381" s="2">
-        <v>55332</v>
+        <v>55319</v>
       </c>
       <c r="E381" s="2">
-        <v>55360</v>
+        <v>55347</v>
       </c>
       <c r="F381" s="2">
-        <v>55360</v>
+        <v>55347</v>
       </c>
       <c r="G381">
         <v>7.7777777777777779E-2</v>
@@ -11512,16 +11512,16 @@
         <v>381</v>
       </c>
       <c r="C382" s="2">
-        <v>55359</v>
+        <v>55346</v>
       </c>
       <c r="D382" s="2">
-        <v>55360</v>
+        <v>55347</v>
       </c>
       <c r="E382" s="2">
-        <v>55388</v>
+        <v>55375</v>
       </c>
       <c r="F382" s="2">
-        <v>55388</v>
+        <v>55375</v>
       </c>
       <c r="G382">
         <v>7.7777777777777779E-2</v>
@@ -11541,16 +11541,16 @@
         <v>382</v>
       </c>
       <c r="C383" s="2">
-        <v>55387</v>
+        <v>55374</v>
       </c>
       <c r="D383" s="2">
-        <v>55388</v>
+        <v>55375</v>
       </c>
       <c r="E383" s="2">
-        <v>55416</v>
+        <v>55403</v>
       </c>
       <c r="F383" s="2">
-        <v>55416</v>
+        <v>55403</v>
       </c>
       <c r="G383">
         <v>7.7777777777777779E-2</v>
@@ -11570,16 +11570,16 @@
         <v>383</v>
       </c>
       <c r="C384" s="2">
-        <v>55415</v>
+        <v>55402</v>
       </c>
       <c r="D384" s="2">
-        <v>55416</v>
+        <v>55403</v>
       </c>
       <c r="E384" s="2">
-        <v>55444</v>
+        <v>55431</v>
       </c>
       <c r="F384" s="2">
-        <v>55444</v>
+        <v>55431</v>
       </c>
       <c r="G384">
         <v>7.7777777777777779E-2</v>
@@ -11599,16 +11599,16 @@
         <v>384</v>
       </c>
       <c r="C385" s="2">
-        <v>55443</v>
+        <v>55430</v>
       </c>
       <c r="D385" s="2">
-        <v>55444</v>
+        <v>55431</v>
       </c>
       <c r="E385" s="2">
-        <v>55472</v>
+        <v>55459</v>
       </c>
       <c r="F385" s="2">
-        <v>55472</v>
+        <v>55459</v>
       </c>
       <c r="G385">
         <v>7.7777777777777779E-2</v>
@@ -11628,16 +11628,16 @@
         <v>385</v>
       </c>
       <c r="C386" s="2">
-        <v>55471</v>
+        <v>55458</v>
       </c>
       <c r="D386" s="2">
-        <v>55472</v>
+        <v>55459</v>
       </c>
       <c r="E386" s="2">
-        <v>55500</v>
+        <v>55487</v>
       </c>
       <c r="F386" s="2">
-        <v>55500</v>
+        <v>55487</v>
       </c>
       <c r="G386">
         <v>7.7777777777777779E-2</v>
@@ -11657,16 +11657,16 @@
         <v>386</v>
       </c>
       <c r="C387" s="2">
-        <v>55499</v>
+        <v>55486</v>
       </c>
       <c r="D387" s="2">
-        <v>55500</v>
+        <v>55487</v>
       </c>
       <c r="E387" s="2">
-        <v>55528</v>
+        <v>55515</v>
       </c>
       <c r="F387" s="2">
-        <v>55528</v>
+        <v>55515</v>
       </c>
       <c r="G387">
         <v>7.7777777777777779E-2</v>
@@ -11686,16 +11686,16 @@
         <v>387</v>
       </c>
       <c r="C388" s="2">
-        <v>55527</v>
+        <v>55514</v>
       </c>
       <c r="D388" s="2">
-        <v>55528</v>
+        <v>55515</v>
       </c>
       <c r="E388" s="2">
-        <v>55556</v>
+        <v>55543</v>
       </c>
       <c r="F388" s="2">
-        <v>55556</v>
+        <v>55543</v>
       </c>
       <c r="G388">
         <v>7.7777777777777779E-2</v>
@@ -11715,16 +11715,16 @@
         <v>388</v>
       </c>
       <c r="C389" s="2">
-        <v>55555</v>
+        <v>55542</v>
       </c>
       <c r="D389" s="2">
-        <v>55556</v>
+        <v>55543</v>
       </c>
       <c r="E389" s="2">
-        <v>55584</v>
+        <v>55571</v>
       </c>
       <c r="F389" s="2">
-        <v>55584</v>
+        <v>55571</v>
       </c>
       <c r="G389">
         <v>7.7777777777777779E-2</v>
@@ -11744,16 +11744,16 @@
         <v>389</v>
       </c>
       <c r="C390" s="2">
-        <v>55583</v>
+        <v>55570</v>
       </c>
       <c r="D390" s="2">
-        <v>55584</v>
+        <v>55571</v>
       </c>
       <c r="E390" s="2">
-        <v>55612</v>
+        <v>55599</v>
       </c>
       <c r="F390" s="2">
-        <v>55612</v>
+        <v>55599</v>
       </c>
       <c r="G390">
         <v>7.7777777777777779E-2</v>
@@ -11773,16 +11773,16 @@
         <v>390</v>
       </c>
       <c r="C391" s="2">
-        <v>55611</v>
+        <v>55598</v>
       </c>
       <c r="D391" s="2">
-        <v>55612</v>
+        <v>55599</v>
       </c>
       <c r="E391" s="2">
-        <v>55640</v>
+        <v>55627</v>
       </c>
       <c r="F391" s="2">
-        <v>55640</v>
+        <v>55627</v>
       </c>
       <c r="G391">
         <v>7.7777777777777779E-2</v>
